--- a/doc/01_画面設計/wicum_機能要件.xlsx
+++ b/doc/01_画面設計/wicum_機能要件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="838" documentId="5_{2E202A6F-B72E-4C0B-998E-A71783A98DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5275B079-6D86-42F7-AB2C-043040F05098}"/>
+  <xr:revisionPtr revIDLastSave="1065" documentId="5_{2E202A6F-B72E-4C0B-998E-A71783A98DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A260E3F-1A9C-4CB4-BC4F-35CBC3A1FC6A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能要件" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="247">
   <si>
     <t>大機能</t>
   </si>
@@ -421,12 +421,6 @@
     <t>・問い合わせページの「種別選択」のカテゴリを追加/更新/削除できること。</t>
   </si>
   <si>
-    <t>タスク状態マスタ</t>
-  </si>
-  <si>
-    <t>・タスクの状態を追加/更新/削除できること。</t>
-  </si>
-  <si>
     <t>画面マスタ</t>
   </si>
   <si>
@@ -488,6 +482,9 @@
     <t>動作</t>
   </si>
   <si>
+    <t>備考</t>
+  </si>
+  <si>
     <t>HTTP動詞</t>
   </si>
   <si>
@@ -510,27 +507,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>/signup/new</t>
+  </si>
+  <si>
+    <t>signup#new</t>
+  </si>
+  <si>
+    <t>ユーザ登録画面を表示する。</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>詳細表示画面を表示する。</t>
+  </si>
+  <si>
+    <t>resources :videos</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
     <t>/signup</t>
   </si>
   <si>
-    <t>signup#new</t>
-  </si>
-  <si>
-    <t>ユーザ登録画面を表示する。</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>詳細表示画面を表示する。</t>
-  </si>
-  <si>
-    <t>resources :videos</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
     <t>signup#create</t>
   </si>
   <si>
@@ -546,24 +546,27 @@
     <t>get    '/videos',          to: 'videos#index'</t>
   </si>
   <si>
+    <t>/login/new</t>
+  </si>
+  <si>
+    <t>sessions#new</t>
+  </si>
+  <si>
+    <t>ログイン画面を表示する。</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>編集画面を表示する。</t>
+  </si>
+  <si>
+    <t>get    '/videos/:id',      to: 'videos#show'</t>
+  </si>
+  <si>
     <t>/login</t>
   </si>
   <si>
-    <t>sessions#new</t>
-  </si>
-  <si>
-    <t>ログイン画面を表示する。</t>
-  </si>
-  <si>
-    <t>edit</t>
-  </si>
-  <si>
-    <t>編集画面を表示する。</t>
-  </si>
-  <si>
-    <t>get    '/videos/:id',      to: 'videos#show'</t>
-  </si>
-  <si>
     <t>sessions#create</t>
   </si>
   <si>
@@ -579,9 +582,18 @@
     <t>get    '/videos/new',      to: 'videos#new</t>
   </si>
   <si>
+    <t>/remindpasswords/new</t>
+  </si>
+  <si>
+    <t>remindpasswords#new</t>
+  </si>
+  <si>
     <t>パスワード再設定画面を表示する。</t>
   </si>
   <si>
+    <t>？？？登録済みのユーザのパスワードを再設定するので、edit？</t>
+  </si>
+  <si>
     <t>PATCH/PUT</t>
   </si>
   <si>
@@ -594,9 +606,18 @@
     <t>get    '/videos/:id/edit', to: 'videos#edit</t>
   </si>
   <si>
+    <t>/remindpasswords</t>
+  </si>
+  <si>
+    <t>remindpasswords#create</t>
+  </si>
+  <si>
     <t>パスワード再設定を実施する。</t>
   </si>
   <si>
+    <t>update？</t>
+  </si>
+  <si>
     <t>DELETE</t>
   </si>
   <si>
@@ -624,13 +645,178 @@
     <t>delete '/videos/:id',      to: 'videos#destroy'</t>
   </si>
   <si>
-    <t>問い合わせ詳細</t>
-  </si>
-  <si>
-    <t>ユーザ詳細</t>
-  </si>
-  <si>
-    <t>障害詳細</t>
+    <t>/inquiries</t>
+  </si>
+  <si>
+    <t>inquiries#new</t>
+  </si>
+  <si>
+    <t>お問い合わせ画面を表示する。</t>
+  </si>
+  <si>
+    <t>inquiries#create</t>
+  </si>
+  <si>
+    <t>お問い合わせ情報を登録する。</t>
+  </si>
+  <si>
+    <t>inquiries#index</t>
+  </si>
+  <si>
+    <t>問い合わせ一覧画面を表示する。</t>
+  </si>
+  <si>
+    <t>/inquiries/:id</t>
+  </si>
+  <si>
+    <t>inquiries#show</t>
+  </si>
+  <si>
+    <t>問い合わせ詳細画面を表示する。</t>
+  </si>
+  <si>
+    <t>/users</t>
+  </si>
+  <si>
+    <t>users#index</t>
+  </si>
+  <si>
+    <t>ユーザ一覧画面を表示する。</t>
+  </si>
+  <si>
+    <t>/users/:id</t>
+  </si>
+  <si>
+    <t>users#show</t>
+  </si>
+  <si>
+    <t>ユーザ詳細画面を表示する。</t>
+  </si>
+  <si>
+    <t>/users/new</t>
+  </si>
+  <si>
+    <t>users#new</t>
+  </si>
+  <si>
+    <t>ユーザを新規登録画面を表示する。</t>
+  </si>
+  <si>
+    <t>/users/:id/edit</t>
+  </si>
+  <si>
+    <t>users#edit</t>
+  </si>
+  <si>
+    <t>ユーザ情報編集画面を表示する。</t>
+  </si>
+  <si>
+    <t>権限の編集が可能。</t>
+  </si>
+  <si>
+    <t>users#create</t>
+  </si>
+  <si>
+    <t>ユーザを新規作成する。</t>
+  </si>
+  <si>
+    <t>users#update</t>
+  </si>
+  <si>
+    <t>ユーザ情報を更新する。</t>
+  </si>
+  <si>
+    <t>権限を更新する。</t>
+  </si>
+  <si>
+    <t>users#destroy</t>
+  </si>
+  <si>
+    <t>ユーザ情報を削除する。</t>
+  </si>
+  <si>
+    <t>/questions</t>
+  </si>
+  <si>
+    <t>questions#index</t>
+  </si>
+  <si>
+    <t>よくある質問一覧画面を表示する。</t>
+  </si>
+  <si>
+    <t>questions#show</t>
+  </si>
+  <si>
+    <t>よくある質問障害画面を表示する。</t>
+  </si>
+  <si>
+    <t>/bugs</t>
+  </si>
+  <si>
+    <t>bugs#index</t>
+  </si>
+  <si>
+    <t>障害一覧画面を表示する。</t>
+  </si>
+  <si>
+    <t>/bugs/:id</t>
+  </si>
+  <si>
+    <t>bugs#show</t>
+  </si>
+  <si>
+    <t>障害詳細画面を表示する。</t>
+  </si>
+  <si>
+    <t>/inquiry_categorys</t>
+  </si>
+  <si>
+    <t>inquiry_categorys#index</t>
+  </si>
+  <si>
+    <t>カテゴリ一覧画面を表示する。</t>
+  </si>
+  <si>
+    <t>/inquiry_categorys/new</t>
+  </si>
+  <si>
+    <t>inquiry_categorys#new</t>
+  </si>
+  <si>
+    <t>カテゴリ新規登録画面を表示する。</t>
+  </si>
+  <si>
+    <t>/inquiry_categorys/:id/edit</t>
+  </si>
+  <si>
+    <t>inquiry_categorys#edit</t>
+  </si>
+  <si>
+    <t>カテゴリ編集画面を表示する。</t>
+  </si>
+  <si>
+    <t>inquiry_categorys#create</t>
+  </si>
+  <si>
+    <t>カテゴリを新規作成する。</t>
+  </si>
+  <si>
+    <t>/inquiry_categorys/:id</t>
+  </si>
+  <si>
+    <t>inquiry_categorys#update</t>
+  </si>
+  <si>
+    <t>カテゴリを更新する。</t>
+  </si>
+  <si>
+    <t>inquiry_categorys#destroy</t>
+  </si>
+  <si>
+    <t>カテゴリを削除する。</t>
+  </si>
+  <si>
+    <t>カテゴリが既に問い合わせ種別で割り当てられている場合の削除は？</t>
   </si>
 </sst>
 </file>
@@ -721,7 +907,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -810,17 +996,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -851,25 +1026,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -887,51 +1088,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -947,20 +1103,93 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1275,7 +1504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1284,1090 +1513,1073 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.25" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="7" max="7" width="42.25" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="21"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="4" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="112.5">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="25"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="4" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="25"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="4" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="25"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="4" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="25"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="23"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="4" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="23"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="4" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="37.5">
-      <c r="A12" s="23"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="4" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="23"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="37.5">
-      <c r="A14" s="23"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="23"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="56.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="24"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="8" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="187.5">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="112.5">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="56.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="13"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="9" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="13"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="9" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="13"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="9" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="13"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="7" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="13"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="25"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="7" t="s">
+      <c r="A29" s="34"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="25"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="7" t="s">
+      <c r="A30" s="34"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="37.5">
-      <c r="A31" s="25"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="7" t="s">
+      <c r="A31" s="34"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="25"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="7" t="s">
+      <c r="A32" s="34"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="25"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="7" t="s">
+      <c r="A33" s="34"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="25"/>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="34"/>
+      <c r="B34" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="112.5">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="25"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="8" t="s">
+      <c r="A36" s="34"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="25"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="7" t="s">
+      <c r="A38" s="34"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26" t="s">
+      <c r="A39" s="34"/>
+      <c r="B39" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="7" t="s">
+      <c r="A40" s="34"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="7" t="s">
+      <c r="A41" s="34"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="25"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="7" t="s">
+      <c r="A43" s="34"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="7"/>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="25"/>
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="34"/>
+      <c r="B44" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="25"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="7" t="s">
+      <c r="A45" s="34"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="25"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="7" t="s">
+      <c r="A46" s="34"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" ht="37.5">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="7"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="25"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="7" t="s">
+      <c r="A48" s="34"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="25"/>
-      <c r="B49" s="12" t="s">
+      <c r="A49" s="34"/>
+      <c r="B49" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="25"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="7" t="s">
+      <c r="A50" s="34"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="25"/>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="34"/>
+      <c r="B51" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" ht="37.5">
-      <c r="A52" s="25"/>
-      <c r="B52" s="12" t="s">
+      <c r="A52" s="34"/>
+      <c r="B52" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="7"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="25"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="7" t="s">
+      <c r="A53" s="34"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="7"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26" t="s">
+      <c r="A54" s="34"/>
+      <c r="B54" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="7"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="25"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="7" t="s">
+      <c r="A55" s="34"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="7"/>
+      <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="7" t="s">
+      <c r="A56" s="34"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="7"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="7" t="s">
+      <c r="A57" s="34"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="7"/>
+      <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="7" t="s">
+      <c r="A58" s="34"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="7"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="7" t="s">
+      <c r="A59" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="B59" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="D59" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="E59" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F59" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G60" s="7"/>
+      <c r="G59" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I60" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I59" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="32">
     <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="A47:A59"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="A47:A58"/>
     <mergeCell ref="A42:A46"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B44:B46"/>
@@ -2427,577 +2639,927 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE53AE5C-0E87-4B54-99E9-8B6AA7CF06B3}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="40.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="64.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="40.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:13" ht="18" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="D1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="E1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="F1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="G1" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="I1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="J1" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="A2" s="7">
+      <c r="K1" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1">
+      <c r="A2" s="4">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="29" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="I2" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="K2" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="M2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1">
+      <c r="A3" s="4">
+        <f t="shared" ref="A3:A41" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="7">
-        <f t="shared" ref="A3:A30" si="0">ROW()-1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
+      <c r="E3" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="I3" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18" customHeight="1">
+      <c r="A4" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="I4" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="I5" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="I6" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18" customHeight="1">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="M9" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18" customHeight="1">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="11"/>
+      <c r="M10" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="L3" s="27" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1">
-      <c r="A4" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1">
-      <c r="A5" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="34" t="s">
+      <c r="D15" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" ht="18" customHeight="1">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1">
-      <c r="A6" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1">
-      <c r="A7" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="34" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" ht="18" customHeight="1">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" ht="18" customHeight="1">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" ht="18" customHeight="1">
+      <c r="A30" s="4">
+        <f>ROW()-1</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" ht="18" customHeight="1">
+      <c r="A34" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" ht="18" customHeight="1">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" ht="18" customHeight="1">
+      <c r="A36" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" customHeight="1">
+      <c r="A37" s="4">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1">
-      <c r="A8" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1">
-      <c r="A9" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="36" t="s">
+      <c r="B37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" ht="18" customHeight="1">
+      <c r="A38" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" ht="18" customHeight="1">
+      <c r="A39" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" ht="18" customHeight="1">
+      <c r="A40" s="4">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1">
-      <c r="A10" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="L10" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1">
-      <c r="A11" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-    </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1">
-      <c r="A12" s="7">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1">
-      <c r="A13" s="7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-    </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1">
-      <c r="A14" s="7">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1">
-      <c r="A15" s="7">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-    </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1">
-      <c r="A16" s="7">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-    </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1">
-      <c r="A17" s="7">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-    </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1">
-      <c r="A18" s="7">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-    </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1">
-      <c r="A19" s="7">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-    </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1">
-      <c r="A20" s="7">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-    </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1">
-      <c r="A21" s="7">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-    </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1">
-      <c r="A22" s="7">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1">
-      <c r="A23" s="7">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-    </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1">
-      <c r="A24" s="7">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1">
-      <c r="A25" s="7">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1">
-      <c r="A26" s="7">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-    </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1">
-      <c r="A27" s="7">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-    </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1">
-      <c r="A28" s="7">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-    </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1">
-      <c r="A29" s="7">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1">
-      <c r="A30" s="7">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" ht="18" customHeight="1">
+      <c r="A41" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{DE544392-D59F-4186-83BD-F554BE8C169C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21 C37:C1048576 C29:C33" xr:uid="{DE544392-D59F-4186-83BD-F554BE8C169C}">
       <formula1>"GET,POST,PATCH/PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/01_画面設計/wicum_機能要件.xlsx
+++ b/doc/01_画面設計/wicum_機能要件.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1065" documentId="5_{2E202A6F-B72E-4C0B-998E-A71783A98DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A260E3F-1A9C-4CB4-BC4F-35CBC3A1FC6A}"/>
+  <xr:revisionPtr revIDLastSave="1291" documentId="5_{2E202A6F-B72E-4C0B-998E-A71783A98DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7120AD93-0200-41DC-B34D-5FC22A09848E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能要件" sheetId="1" r:id="rId1"/>
     <sheet name="Gem構成" sheetId="4" r:id="rId2"/>
-    <sheet name="ルートテーブル" sheetId="3" r:id="rId3"/>
+    <sheet name="ルートテーブル定義" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">機能要件!$A$1:$I$1</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="295">
   <si>
     <t>大機能</t>
   </si>
@@ -421,18 +421,6 @@
     <t>・問い合わせページの「種別選択」のカテゴリを追加/更新/削除できること。</t>
   </si>
   <si>
-    <t>画面マスタ</t>
-  </si>
-  <si>
-    <t>・全画面の情報を追加/更新/削除できること。</t>
-  </si>
-  <si>
-    <t>権限マスタ</t>
-  </si>
-  <si>
-    <t>・画面へのアクセス権限を追加/更新/削除できること。</t>
-  </si>
-  <si>
     <t>トロフィーマスタ</t>
   </si>
   <si>
@@ -455,6 +443,9 @@
   </si>
   <si>
     <t>・障害発生時に開発者のメールアドレスに障害内容をメールで通知できること。</t>
+  </si>
+  <si>
+    <t>https://leanpub.com/everydayrailsrspec-jp</t>
   </si>
   <si>
     <t>No</t>
@@ -462,6 +453,9 @@
   </si>
   <si>
     <t>画面/機能名</t>
+  </si>
+  <si>
+    <t>namespace</t>
   </si>
   <si>
     <t>HTTP動詞</t>
@@ -491,10 +485,19 @@
     <t>action</t>
   </si>
   <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/top</t>
+  </si>
+  <si>
+    <t>top#index</t>
+  </si>
+  <si>
     <t>トップページを表示する。</t>
   </si>
   <si>
-    <t>GET</t>
+    <t>root</t>
   </si>
   <si>
     <t>index</t>
@@ -645,6 +648,63 @@
     <t>delete '/videos/:id',      to: 'videos#destroy'</t>
   </si>
   <si>
+    <t>/profiles</t>
+  </si>
+  <si>
+    <t>profiles#show</t>
+  </si>
+  <si>
+    <t>ユーザプロファイルを表示する。</t>
+  </si>
+  <si>
+    <t>プロフィール [ニックネーム変更]</t>
+  </si>
+  <si>
+    <t>/nickname/:id</t>
+  </si>
+  <si>
+    <t>nickname#update</t>
+  </si>
+  <si>
+    <t>ニックネームを更新する。</t>
+  </si>
+  <si>
+    <t>プロフィール [メールアドレス変更]</t>
+  </si>
+  <si>
+    <t>/email/:id</t>
+  </si>
+  <si>
+    <t>email#update</t>
+  </si>
+  <si>
+    <t>メールアドレスを更新する。</t>
+  </si>
+  <si>
+    <t>プロフィール [パスワード変更]</t>
+  </si>
+  <si>
+    <t>/password/:id</t>
+  </si>
+  <si>
+    <t>password#update</t>
+  </si>
+  <si>
+    <t>パスワードを更新する。</t>
+  </si>
+  <si>
+    <t>プロフィール [退会]</t>
+  </si>
+  <si>
+    <t>/trophy</t>
+  </si>
+  <si>
+    <t>trophy#show</t>
+  </si>
+  <si>
+    <t>獲得したトロフィーを表示する。</t>
+  </si>
+  <si>
     <t>/inquiries</t>
   </si>
   <si>
@@ -660,6 +720,9 @@
     <t>お問い合わせ情報を登録する。</t>
   </si>
   <si>
+    <t>admin</t>
+  </si>
+  <si>
     <t>inquiries#index</t>
   </si>
   <si>
@@ -675,6 +738,24 @@
     <t>問い合わせ詳細画面を表示する。</t>
   </si>
   <si>
+    <t>/inquiries/:id/edit</t>
+  </si>
+  <si>
+    <t>inquiries#edit</t>
+  </si>
+  <si>
+    <t>問い合わせ編集画面を表示する。</t>
+  </si>
+  <si>
+    <t>inquiries#update</t>
+  </si>
+  <si>
+    <t>問い合わせ情報を更新する。</t>
+  </si>
+  <si>
+    <t>内容、およびステータスを更新する。</t>
+  </si>
+  <si>
     <t>/users</t>
   </si>
   <si>
@@ -699,7 +780,7 @@
     <t>users#new</t>
   </si>
   <si>
-    <t>ユーザを新規登録画面を表示する。</t>
+    <t>ユーザの新規登録画面を表示する。</t>
   </si>
   <si>
     <t>/users/:id/edit</t>
@@ -744,12 +825,54 @@
     <t>よくある質問一覧画面を表示する。</t>
   </si>
   <si>
+    <t>/questions/:id</t>
+  </si>
+  <si>
     <t>questions#show</t>
   </si>
   <si>
     <t>よくある質問障害画面を表示する。</t>
   </si>
   <si>
+    <t>/questions/new</t>
+  </si>
+  <si>
+    <t>questions#new</t>
+  </si>
+  <si>
+    <t>よくある質問の新規登録画面を表示する。</t>
+  </si>
+  <si>
+    <t>/questions/:id/edit</t>
+  </si>
+  <si>
+    <t>questions#edit</t>
+  </si>
+  <si>
+    <t>よくある質問の編集画面を表示する。</t>
+  </si>
+  <si>
+    <t>/questions/</t>
+  </si>
+  <si>
+    <t>questions#create</t>
+  </si>
+  <si>
+    <t>よくある質問を新規作成する。</t>
+  </si>
+  <si>
+    <t>questions#update</t>
+  </si>
+  <si>
+    <t>よくある質問を更新する。</t>
+  </si>
+  <si>
+    <t>questions#destroy</t>
+  </si>
+  <si>
+    <t>よくある質問を削除する。</t>
+  </si>
+  <si>
     <t>/bugs</t>
   </si>
   <si>
@@ -768,6 +891,24 @@
     <t>障害詳細画面を表示する。</t>
   </si>
   <si>
+    <t>/bugs/:id/edit</t>
+  </si>
+  <si>
+    <t>bugs#edit</t>
+  </si>
+  <si>
+    <t>障害編集画面を表示する。</t>
+  </si>
+  <si>
+    <t>bugs#update</t>
+  </si>
+  <si>
+    <t>障害情報を更新する。</t>
+  </si>
+  <si>
+    <t>障害のステータスをコントロールする？</t>
+  </si>
+  <si>
     <t>/inquiry_categorys</t>
   </si>
   <si>
@@ -817,13 +958,16 @@
   </si>
   <si>
     <t>カテゴリが既に問い合わせ種別で割り当てられている場合の削除は？</t>
+  </si>
+  <si>
+    <t>/mailing_list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -880,6 +1024,14 @@
       <color rgb="FF54687C"/>
       <name val="メイリオ"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -907,7 +1059,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1061,11 +1213,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1110,41 +1296,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1158,40 +1340,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1504,11 +1705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A55:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1547,16 +1748,16 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="19" t="s">
@@ -1568,10 +1769,10 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="30"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="18" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="19" t="s">
@@ -1583,16 +1784,16 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="112.5">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="19" t="s">
@@ -1604,10 +1805,10 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="34"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="18" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="19" t="s">
@@ -1619,10 +1820,10 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="34"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="18" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="20" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="19" t="s">
@@ -1634,10 +1835,10 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="34"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="18" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="19" t="s">
@@ -1649,8 +1850,8 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="34"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1666,16 +1867,16 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="20" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="19" t="s">
@@ -1687,10 +1888,10 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="32"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="18" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -1702,10 +1903,10 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="32"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="18" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="20" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -1717,10 +1918,10 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="37.5">
-      <c r="A12" s="32"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="18" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -1732,8 +1933,8 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="32"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1749,8 +1950,8 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="37.5">
-      <c r="A14" s="32"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
@@ -1766,8 +1967,8 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="32"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="17" t="s">
         <v>34</v>
       </c>
@@ -1783,11 +1984,11 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="56.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="38" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1802,9 +2003,9 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="33"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
@@ -1838,10 +2039,10 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="187.5">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="38" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1861,8 +2062,8 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="24"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
@@ -1878,13 +2079,13 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="112.5">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -1901,9 +2102,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="56.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="21"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="7" t="s">
         <v>51</v>
       </c>
@@ -1916,9 +2117,9 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="22"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="21"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="6" t="s">
         <v>52</v>
       </c>
@@ -1931,9 +2132,9 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="22"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="21"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="6" t="s">
         <v>53</v>
       </c>
@@ -1946,9 +2147,9 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="22"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="21"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="6" t="s">
         <v>54</v>
       </c>
@@ -1961,8 +2162,8 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="22"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="4" t="s">
         <v>55</v>
       </c>
@@ -1978,8 +2179,8 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="22"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="4" t="s">
         <v>42</v>
       </c>
@@ -1995,10 +2196,10 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="29" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2016,8 +2217,8 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="34"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="4" t="s">
         <v>62</v>
       </c>
@@ -2033,8 +2234,8 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="34"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="4" t="s">
         <v>64</v>
       </c>
@@ -2050,8 +2251,8 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="37.5">
-      <c r="A31" s="34"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="4" t="s">
         <v>66</v>
       </c>
@@ -2067,8 +2268,8 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="34"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="4" t="s">
         <v>68</v>
       </c>
@@ -2084,8 +2285,8 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="34"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="4" t="s">
         <v>70</v>
       </c>
@@ -2101,7 +2302,7 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="34"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="17" t="s">
         <v>72</v>
       </c>
@@ -2120,13 +2321,13 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="112.5">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="29" t="s">
         <v>76</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -2141,9 +2342,9 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="34"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="5" t="s">
         <v>78</v>
       </c>
@@ -2156,10 +2357,10 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="30" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -2177,8 +2378,8 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="4" t="s">
         <v>14</v>
       </c>
@@ -2194,8 +2395,8 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="34"/>
-      <c r="B39" s="35" t="s">
+      <c r="A39" s="31"/>
+      <c r="B39" s="30" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2213,8 +2414,8 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="34"/>
-      <c r="B40" s="35"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="4" t="s">
         <v>39</v>
       </c>
@@ -2230,8 +2431,8 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="34"/>
-      <c r="B41" s="35"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="4" t="s">
         <v>85</v>
       </c>
@@ -2247,10 +2448,10 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="29" t="s">
         <v>88</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -2268,8 +2469,8 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="34"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="4" t="s">
         <v>75</v>
       </c>
@@ -2285,8 +2486,8 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="34"/>
-      <c r="B44" s="21" t="s">
+      <c r="A44" s="31"/>
+      <c r="B44" s="29" t="s">
         <v>92</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2304,8 +2505,8 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="34"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="4" t="s">
         <v>95</v>
       </c>
@@ -2321,8 +2522,8 @@
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="34"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="4" t="s">
         <v>97</v>
       </c>
@@ -2338,10 +2539,10 @@
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" ht="37.5">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="29" t="s">
         <v>100</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2359,8 +2560,8 @@
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="34"/>
-      <c r="B48" s="21"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="4" t="s">
         <v>102</v>
       </c>
@@ -2376,8 +2577,8 @@
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="34"/>
-      <c r="B49" s="21" t="s">
+      <c r="A49" s="31"/>
+      <c r="B49" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -2395,8 +2596,8 @@
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="34"/>
-      <c r="B50" s="21"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="4" t="s">
         <v>106</v>
       </c>
@@ -2412,7 +2613,7 @@
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="34"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="4" t="s">
         <v>108</v>
       </c>
@@ -2431,8 +2632,8 @@
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" ht="37.5">
-      <c r="A52" s="34"/>
-      <c r="B52" s="21" t="s">
+      <c r="A52" s="31"/>
+      <c r="B52" s="29" t="s">
         <v>110</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -2450,8 +2651,8 @@
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="34"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="29"/>
       <c r="C53" s="4" t="s">
         <v>112</v>
       </c>
@@ -2467,8 +2668,8 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="34"/>
-      <c r="B54" s="35" t="s">
+      <c r="A54" s="31"/>
+      <c r="B54" s="30" t="s">
         <v>114</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -2486,8 +2687,8 @@
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="34"/>
-      <c r="B55" s="35"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="4" t="s">
         <v>117</v>
       </c>
@@ -2503,8 +2704,8 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="34"/>
-      <c r="B56" s="35"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="4" t="s">
         <v>119</v>
       </c>
@@ -2520,78 +2721,35 @@
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="34"/>
-      <c r="B57" s="35"/>
+      <c r="A57" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="C57" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="34"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I59" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I57" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="32">
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="A47:A58"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B27"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -2603,12 +2761,21 @@
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{55731E81-CF27-4CD2-A685-40F3C85343DF}">
@@ -2626,941 +2793,1336 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F299E473-16C6-44F8-B49E-90922BF96704}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.75">
+      <c r="A1" s="54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{3E3E704B-101B-4BC4-9DBA-3BA9BC252498}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE53AE5C-0E87-4B54-99E9-8B6AA7CF06B3}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="40.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="40.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1">
+    <row r="1" spans="1:14" ht="18" customHeight="1">
       <c r="A1" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="H1" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="K1" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1">
-      <c r="A2" s="4">
+      <c r="L1" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1">
+      <c r="A2" s="15">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="44" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="I2" s="17" t="s">
+      <c r="G2" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>140</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="13" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1">
-      <c r="A3" s="4">
-        <f t="shared" ref="A3:A41" si="0">ROW()-1</f>
+      <c r="N2" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18" customHeight="1">
+      <c r="A3" s="15">
+        <f t="shared" ref="A3:A52" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>143</v>
+      <c r="C3" s="17"/>
+      <c r="D3" s="46" t="s">
+        <v>136</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="I3" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="26" t="s">
         <v>146</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="J3" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="L3" s="13" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1">
-      <c r="A4" s="4">
+      <c r="N3" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18" customHeight="1">
+      <c r="A4" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23" t="s">
         <v>150</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="I4" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="J4" s="13" t="s">
+      <c r="G4" s="25" t="s">
         <v>153</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="J4" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="L4" s="13" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1">
-      <c r="A5" s="4">
+      <c r="N4" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18" customHeight="1">
+      <c r="A5" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>156</v>
+      <c r="C5" s="17"/>
+      <c r="D5" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="I5" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="J5" s="13" t="s">
+      <c r="G5" s="25" t="s">
         <v>159</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="J5" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="L5" s="13" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1">
-      <c r="A6" s="4">
+      <c r="N5" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" customHeight="1">
+      <c r="A6" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>162</v>
+      <c r="B6" s="29"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="23" t="s">
+        <v>150</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="I6" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="G6" s="25" t="s">
         <v>165</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="J6" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="L6" s="13" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1">
-      <c r="A7" s="4">
+      <c r="N6" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" customHeight="1">
+      <c r="A7" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>168</v>
+      <c r="C7" s="17"/>
+      <c r="D7" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="H7" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="17" t="s">
         <v>173</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="L7" s="13" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1">
-      <c r="A8" s="4">
+      <c r="N7" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18" customHeight="1">
+      <c r="A8" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>176</v>
+      <c r="B8" s="29"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="23" t="s">
+        <v>150</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="H8" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="17" t="s">
         <v>181</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="L8" s="13" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1">
-      <c r="A9" s="4">
+      <c r="N8" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1">
+      <c r="A9" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>184</v>
+      <c r="C9" s="4"/>
+      <c r="D9" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="M9" s="9" t="s">
+      <c r="G9" s="25" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1">
-      <c r="A10" s="4">
+      <c r="H9" s="11"/>
+      <c r="N9" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18" customHeight="1">
+      <c r="A10" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="11"/>
-      <c r="M10" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1">
-      <c r="A11" s="4">
+      <c r="F10" s="16"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="11"/>
+      <c r="N10" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1">
+      <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" ht="18" customHeight="1">
+      <c r="A12" s="15">
+        <f>ROW()-1</f>
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1">
+      <c r="A13" s="15">
+        <f>ROW()-1</f>
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1">
+      <c r="A14" s="15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1">
+      <c r="A15" s="15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" ht="18" customHeight="1">
+      <c r="A16" s="15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1">
+      <c r="A17" s="15">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="25" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" ht="18" customHeight="1">
+      <c r="A18" s="15">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" customHeight="1">
+      <c r="A19" s="15">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" ht="18" customHeight="1">
+      <c r="A20" s="15">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" ht="18" customHeight="1">
+      <c r="A21" s="15">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1">
-      <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="25" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" ht="18" customHeight="1">
+      <c r="A22" s="15">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F18" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1">
-      <c r="A20" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="25" t="s">
+      <c r="C22" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" ht="18" customHeight="1">
+      <c r="A23" s="15">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" ht="18" customHeight="1">
+      <c r="A24" s="15">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" ht="18" customHeight="1">
+      <c r="A25" s="15">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" customHeight="1">
+      <c r="A26" s="15">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1">
-      <c r="A21" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1">
-      <c r="A22" s="4">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1">
-      <c r="A23" s="4">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1">
-      <c r="A24" s="4">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="F24" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1">
-      <c r="A25" s="4">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E25" s="42" t="s">
+      <c r="C26" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="F25" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1">
-      <c r="A26" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="20" t="s">
-        <v>180</v>
-      </c>
       <c r="D26" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1">
-      <c r="A27" s="4">
+        <v>136</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" ht="18" customHeight="1">
+      <c r="A27" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="45"/>
+      <c r="C27" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" ht="18" customHeight="1">
+      <c r="A28" s="15">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" ht="18" customHeight="1">
+      <c r="A29" s="15">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="45"/>
+      <c r="C29" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18" customHeight="1">
+      <c r="A30" s="15">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" ht="18" customHeight="1">
+      <c r="A31" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="45"/>
+      <c r="C31" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18" customHeight="1">
+      <c r="A32" s="15">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="55"/>
+      <c r="C32" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="1:8" ht="18" customHeight="1">
+      <c r="A33" s="15">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1">
-      <c r="A28" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1">
-      <c r="A29" s="4">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="25" t="s">
+      <c r="C33" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="1:8" ht="18" customHeight="1">
+      <c r="A34" s="15">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="1:8" ht="18" customHeight="1">
+      <c r="A35" s="15">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="29"/>
+      <c r="C35" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="1:8" ht="18" customHeight="1">
+      <c r="A36" s="15">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:8" ht="18" customHeight="1">
+      <c r="A37" s="15">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:8" ht="18" customHeight="1">
+      <c r="A38" s="15">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="1:8" ht="18" customHeight="1">
+      <c r="A39" s="15">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="29"/>
+      <c r="C39" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="1:8" ht="18" customHeight="1">
+      <c r="A40" s="15">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1">
-      <c r="A30" s="4">
+      <c r="C40" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="1:8" ht="18" customHeight="1">
+      <c r="A41" s="15">
         <f>ROW()-1</f>
-        <v>29</v>
-      </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1">
-      <c r="A31" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="29"/>
+      <c r="C41" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="1:8" ht="18" customHeight="1">
+      <c r="A42" s="15">
+        <f>ROW()-1</f>
+        <v>41</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="C42" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="1:8" ht="18" customHeight="1">
+      <c r="A43" s="15">
+        <f>ROW()-1</f>
+        <v>42</v>
+      </c>
+      <c r="B43" s="29"/>
+      <c r="C43" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18" customHeight="1">
+      <c r="A44" s="15">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="F31" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1">
-      <c r="A32" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="F32" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1">
-      <c r="A33" s="4">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="F33" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1">
-      <c r="A34" s="4">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="F34" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1">
-      <c r="A35" s="4">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="F35" s="47" t="s">
-        <v>243</v>
-      </c>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1">
-      <c r="A36" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F36" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1">
-      <c r="A37" s="4">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="C44" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="1:8" ht="18" customHeight="1">
+      <c r="A45" s="15">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="29"/>
+      <c r="C45" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F45" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="G45" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8" ht="18" customHeight="1">
+      <c r="A46" s="15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="C46" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8" ht="18" customHeight="1">
+      <c r="A47" s="15">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8" ht="18" customHeight="1">
+      <c r="A48" s="15">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="1:8" ht="18" customHeight="1">
+      <c r="A49" s="15">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="29"/>
+      <c r="C49" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F49" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="18" customHeight="1">
+      <c r="A50" s="15">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1">
-      <c r="A38" s="4">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="C50" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="1:8" ht="18" customHeight="1">
+      <c r="A51" s="15">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1">
-      <c r="A39" s="4">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1">
-      <c r="A40" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1">
-      <c r="A41" s="4">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="11"/>
+      <c r="C51" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52" spans="1:8" ht="18" customHeight="1">
+      <c r="A52" s="15">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B27:B28"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B32"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B40:B43"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21 C37:C1048576 C29:C33" xr:uid="{DE544392-D59F-4186-83BD-F554BE8C169C}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13 D33:D34 D40:D42 D44:D46 D16:D24 D26:D27 D50:D1048576" xr:uid="{DE544392-D59F-4186-83BD-F554BE8C169C}">
       <formula1>"GET,POST,PATCH/PUT,DELETE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{EC46DEB6-FA74-4A07-AA14-86FC8806EF26}">
+      <formula1>"user,admin, "</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/01_画面設計/wicum_機能要件.xlsx
+++ b/doc/01_画面設計/wicum_機能要件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1291" documentId="5_{2E202A6F-B72E-4C0B-998E-A71783A98DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7120AD93-0200-41DC-B34D-5FC22A09848E}"/>
+  <xr:revisionPtr revIDLastSave="1501" documentId="5_{2E202A6F-B72E-4C0B-998E-A71783A98DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67355E19-0059-4CCF-8714-B06FCB9655F1}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能要件" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="352">
   <si>
     <t>大機能</t>
   </si>
@@ -427,12 +427,6 @@
     <t>・タスク達成によるトロフィーを管理するマスタを追加/更新/削除できること。</t>
   </si>
   <si>
-    <t>障害通知メーリングリストマスタ</t>
-  </si>
-  <si>
-    <t>・障害を通知するメーリングリストマスタを追加/更新/削除できること。</t>
-  </si>
-  <si>
     <t>通知</t>
   </si>
   <si>
@@ -443,6 +437,15 @@
   </si>
   <si>
     <t>・障害発生時に開発者のメールアドレスに障害内容をメールで通知できること。</t>
+  </si>
+  <si>
+    <t>タスク通知</t>
+  </si>
+  <si>
+    <t>タスクリマインダー通知</t>
+  </si>
+  <si>
+    <t>・タスクに設定されたリマインダー日時にユーザへ通知を行うこと。メール？</t>
   </si>
   <si>
     <t>https://leanpub.com/everydayrailsrspec-jp</t>
@@ -645,19 +648,37 @@
     <t>patch  '/videos/:id',      to: 'videos#update'</t>
   </si>
   <si>
+    <t>/goals</t>
+  </si>
+  <si>
     <t>delete '/videos/:id',      to: 'videos#destroy'</t>
   </si>
   <si>
-    <t>/profiles</t>
-  </si>
-  <si>
-    <t>profiles#show</t>
-  </si>
-  <si>
-    <t>ユーザプロファイルを表示する。</t>
-  </si>
-  <si>
-    <t>プロフィール [ニックネーム変更]</t>
+    <t>/tasks</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>/mypages</t>
+  </si>
+  <si>
+    <t>mypages#show</t>
+  </si>
+  <si>
+    <t>ユーザのマイページを表示する。</t>
+  </si>
+  <si>
+    <t>マイページ [ニックネーム変更]</t>
+  </si>
+  <si>
+    <t>/nickname/:id/edit</t>
+  </si>
+  <si>
+    <t>nickname#edit</t>
+  </si>
+  <si>
+    <t>ニックネーム編集画面を表示する。</t>
   </si>
   <si>
     <t>/nickname/:id</t>
@@ -669,7 +690,16 @@
     <t>ニックネームを更新する。</t>
   </si>
   <si>
-    <t>プロフィール [メールアドレス変更]</t>
+    <t>マイページ [メールアドレス変更]</t>
+  </si>
+  <si>
+    <t>/email/:id/edit</t>
+  </si>
+  <si>
+    <t>email#edit</t>
+  </si>
+  <si>
+    <t>メールアドレス編集画面を表示する。</t>
   </si>
   <si>
     <t>/email/:id</t>
@@ -681,7 +711,16 @@
     <t>メールアドレスを更新する。</t>
   </si>
   <si>
-    <t>プロフィール [パスワード変更]</t>
+    <t>マイページ [パスワード変更]</t>
+  </si>
+  <si>
+    <t>/password/:id/edit</t>
+  </si>
+  <si>
+    <t>password#edit</t>
+  </si>
+  <si>
+    <t>パスワード編集画面を表示する。</t>
   </si>
   <si>
     <t>/password/:id</t>
@@ -693,13 +732,23 @@
     <t>パスワードを更新する。</t>
   </si>
   <si>
-    <t>プロフィール [退会]</t>
-  </si>
-  <si>
-    <t>/trophy</t>
-  </si>
-  <si>
-    <t>trophy#show</t>
+    <t>マイページ [退会]</t>
+  </si>
+  <si>
+    <t>/users/:id</t>
+  </si>
+  <si>
+    <t>users#destroy</t>
+  </si>
+  <si>
+    <t>ユーザ情報を削除する。</t>
+  </si>
+  <si>
+    <t>/acquired_trophy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+acquired_trophy#show</t>
   </si>
   <si>
     <t>獲得したトロフィーを表示する。</t>
@@ -720,6 +769,90 @@
     <t>お問い合わせ情報を登録する。</t>
   </si>
   <si>
+    <t>ヘッダー [ログイン]</t>
+  </si>
+  <si>
+    <t>ヘッダー [ユーザ登録]</t>
+  </si>
+  <si>
+    <t>ヘッダー [マイページ]</t>
+  </si>
+  <si>
+    <t>ヘッダー [ログアウト]</t>
+  </si>
+  <si>
+    <t>ヘッダー [タスク通知]</t>
+  </si>
+  <si>
+    <t>/task_notification</t>
+  </si>
+  <si>
+    <t>task_notification#show</t>
+  </si>
+  <si>
+    <t>タスク通知を表示する。</t>
+  </si>
+  <si>
+    <t>フッター [よくある質問]</t>
+  </si>
+  <si>
+    <t>/questions</t>
+  </si>
+  <si>
+    <t>questions#index</t>
+  </si>
+  <si>
+    <t>よくある質問一覧画面を表示する。</t>
+  </si>
+  <si>
+    <t>/questions/:id</t>
+  </si>
+  <si>
+    <t>questions#show</t>
+  </si>
+  <si>
+    <t>よくある質問詳細画面を表示する。</t>
+  </si>
+  <si>
+    <t>フッター [お問い合わせ]</t>
+  </si>
+  <si>
+    <t>フッター [Twitter]</t>
+  </si>
+  <si>
+    <t>/developer</t>
+  </si>
+  <si>
+    <t>Developer#index</t>
+  </si>
+  <si>
+    <t>開発者のTwitterを表示する。</t>
+  </si>
+  <si>
+    <t>フッター [利用規約]</t>
+  </si>
+  <si>
+    <t>/term</t>
+  </si>
+  <si>
+    <t>term#index</t>
+  </si>
+  <si>
+    <t>利用規約を表示する。</t>
+  </si>
+  <si>
+    <t>フッター [プライバシーポリシー]</t>
+  </si>
+  <si>
+    <t>/privacy</t>
+  </si>
+  <si>
+    <t>privacy#index</t>
+  </si>
+  <si>
+    <t>プライバシーポリシーを表示する。</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
@@ -765,9 +898,6 @@
     <t>ユーザ一覧画面を表示する。</t>
   </si>
   <si>
-    <t>/users/:id</t>
-  </si>
-  <si>
     <t>users#show</t>
   </si>
   <si>
@@ -810,30 +940,6 @@
     <t>権限を更新する。</t>
   </si>
   <si>
-    <t>users#destroy</t>
-  </si>
-  <si>
-    <t>ユーザ情報を削除する。</t>
-  </si>
-  <si>
-    <t>/questions</t>
-  </si>
-  <si>
-    <t>questions#index</t>
-  </si>
-  <si>
-    <t>よくある質問一覧画面を表示する。</t>
-  </si>
-  <si>
-    <t>/questions/:id</t>
-  </si>
-  <si>
-    <t>questions#show</t>
-  </si>
-  <si>
-    <t>よくある質問障害画面を表示する。</t>
-  </si>
-  <si>
     <t>/questions/new</t>
   </si>
   <si>
@@ -960,7 +1066,73 @@
     <t>カテゴリが既に問い合わせ種別で割り当てられている場合の削除は？</t>
   </si>
   <si>
-    <t>/mailing_list</t>
+    <t>/trophys</t>
+  </si>
+  <si>
+    <t>trophys#index</t>
+  </si>
+  <si>
+    <t>トロフィー一覧画面を表示する。</t>
+  </si>
+  <si>
+    <t>/trophys/:id</t>
+  </si>
+  <si>
+    <t>trophys#show</t>
+  </si>
+  <si>
+    <t>トロフィー詳細画面を表示する。</t>
+  </si>
+  <si>
+    <t>/trophys/new</t>
+  </si>
+  <si>
+    <t>trophys#new</t>
+  </si>
+  <si>
+    <t>トロフィーを新規登録画面を表示する。</t>
+  </si>
+  <si>
+    <t>/trophys/:id/edit</t>
+  </si>
+  <si>
+    <t>trophys#edit</t>
+  </si>
+  <si>
+    <t>トロフィー編集画面を表示する。</t>
+  </si>
+  <si>
+    <t>trophys#create</t>
+  </si>
+  <si>
+    <t>トロフィーを新規作成する。</t>
+  </si>
+  <si>
+    <t>trophys#update</t>
+  </si>
+  <si>
+    <t>トロフィー情報を更新する。</t>
+  </si>
+  <si>
+    <t>trophys#destory</t>
+  </si>
+  <si>
+    <t>トロフィー情報を削除する。</t>
+  </si>
+  <si>
+    <t>/bug_notification</t>
+  </si>
+  <si>
+    <t>bug_notification#create</t>
+  </si>
+  <si>
+    <t>障害情報をメール通知する。</t>
+  </si>
+  <si>
+    <t>task_notification#create</t>
+  </si>
+  <si>
+    <t>タスク情報をユーザ通知する。</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1293,21 +1465,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1328,6 +1485,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1340,29 +1547,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1370,25 +1559,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1707,9 +1894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A55:XFD56"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1748,277 +1935,277 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="32"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="20" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="112.5">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="31"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="20" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="31"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="20" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="31"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="20" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="31"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="34"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="20" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="34"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="20" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="37.5">
-      <c r="A12" s="34"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="20" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="34"/>
-      <c r="B13" s="40"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="37.5">
-      <c r="A14" s="34"/>
-      <c r="B14" s="40"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="34"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="17" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="24" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="56.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="35"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="39"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2030,19 +2217,19 @@
       <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="187.5">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2051,10 +2238,10 @@
       <c r="D19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -2062,39 +2249,39 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="43"/>
-      <c r="B20" s="39"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="112.5">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="38" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -2102,104 +2289,104 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="56.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="41"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="41"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="41"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="41"/>
-      <c r="B26" s="40"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="41"/>
-      <c r="B27" s="37"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2208,102 +2395,102 @@
       <c r="D28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="31"/>
-      <c r="B29" s="29"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="31"/>
-      <c r="B30" s="29"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="37.5">
-      <c r="A31" s="31"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="31"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="31"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="31"/>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="24" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -2312,55 +2499,55 @@
       <c r="D34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="112.5">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="38" t="s">
         <v>76</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="31"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="52" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -2369,34 +2556,34 @@
       <c r="D37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="31"/>
-      <c r="B38" s="30"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="31"/>
-      <c r="B39" s="30" t="s">
+      <c r="A39" s="51"/>
+      <c r="B39" s="52" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2405,53 +2592,53 @@
       <c r="D39" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="31"/>
-      <c r="B40" s="30"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="31"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="38" t="s">
         <v>88</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -2460,34 +2647,34 @@
       <c r="D42" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="31"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="31"/>
-      <c r="B44" s="29" t="s">
+      <c r="A44" s="51"/>
+      <c r="B44" s="38" t="s">
         <v>92</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2496,53 +2683,53 @@
       <c r="D44" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="31"/>
-      <c r="B45" s="29"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="31"/>
-      <c r="B46" s="29"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" ht="37.5">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="38" t="s">
         <v>100</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2551,34 +2738,34 @@
       <c r="D47" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="31"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="31"/>
-      <c r="B49" s="29" t="s">
+      <c r="A49" s="51"/>
+      <c r="B49" s="38" t="s">
         <v>104</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -2587,33 +2774,33 @@
       <c r="D49" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="31"/>
-      <c r="B50" s="29"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="31"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="4" t="s">
         <v>108</v>
       </c>
@@ -2623,17 +2810,17 @@
       <c r="D51" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" ht="37.5">
-      <c r="A52" s="31"/>
-      <c r="B52" s="29" t="s">
+      <c r="A52" s="51"/>
+      <c r="B52" s="38" t="s">
         <v>110</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -2642,34 +2829,34 @@
       <c r="D52" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="31"/>
-      <c r="B53" s="29"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="38"/>
       <c r="C53" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="31"/>
-      <c r="B54" s="30" t="s">
+      <c r="A54" s="51"/>
+      <c r="B54" s="52" t="s">
         <v>114</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -2678,78 +2865,90 @@
       <c r="D54" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="31"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="4" t="s">
+      <c r="A55" s="48"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F55" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="4"/>
+      <c r="G55" s="58"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="31"/>
-      <c r="B56" s="30"/>
+      <c r="A56" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="C56" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>11</v>
+        <v>122</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="19" t="s">
-        <v>121</v>
-      </c>
+      <c r="A57" s="51"/>
       <c r="B57" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E57" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F57" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I57" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="32">
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B27"/>
+  <autoFilter ref="A1:I56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="33">
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -2761,21 +2960,12 @@
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B8"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A47:A56"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B27"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{55731E81-CF27-4CD2-A685-40F3C85343DF}">
@@ -2803,8 +2993,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
-      <c r="A1" s="54" t="s">
-        <v>125</v>
+      <c r="A1" s="37" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2817,11 +3007,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE53AE5C-0E87-4B54-99E9-8B6AA7CF06B3}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -2845,37 +3035,37 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="32" t="s">
         <v>128</v>
       </c>
+      <c r="C1" s="32" t="s">
+        <v>129</v>
+      </c>
       <c r="D1" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="24" t="s">
         <v>133</v>
       </c>
+      <c r="H1" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="J1" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1">
@@ -2887,67 +3077,67 @@
         <v>7</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="46" t="s">
-        <v>136</v>
+      <c r="D2" s="30" t="s">
+        <v>137</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>136</v>
-      </c>
       <c r="K2" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1">
       <c r="A3" s="15">
-        <f t="shared" ref="A3:A52" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A74" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="46" t="s">
-        <v>136</v>
+      <c r="C3" s="24"/>
+      <c r="D3" s="30" t="s">
+        <v>137</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="26" t="s">
         <v>146</v>
       </c>
+      <c r="G3" s="21" t="s">
+        <v>147</v>
+      </c>
       <c r="H3" s="11"/>
-      <c r="J3" s="17" t="s">
-        <v>136</v>
+      <c r="J3" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1">
@@ -2955,32 +3145,32 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="23" t="s">
-        <v>150</v>
+      <c r="B4" s="38"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="18" t="s">
+        <v>151</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="25" t="s">
         <v>153</v>
       </c>
+      <c r="G4" s="20" t="s">
+        <v>154</v>
+      </c>
       <c r="H4" s="11"/>
-      <c r="J4" s="17" t="s">
-        <v>136</v>
+      <c r="J4" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1">
@@ -2988,34 +3178,34 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="23" t="s">
-        <v>136</v>
+      <c r="C5" s="24"/>
+      <c r="D5" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="25" t="s">
         <v>159</v>
       </c>
+      <c r="G5" s="20" t="s">
+        <v>160</v>
+      </c>
       <c r="H5" s="11"/>
-      <c r="J5" s="17" t="s">
-        <v>136</v>
+      <c r="J5" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1">
@@ -3023,32 +3213,32 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="23" t="s">
-        <v>150</v>
+      <c r="B6" s="38"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="18" t="s">
+        <v>151</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G6" s="25" t="s">
         <v>165</v>
       </c>
+      <c r="G6" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="H6" s="11"/>
-      <c r="J6" s="17" t="s">
-        <v>150</v>
+      <c r="J6" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1">
@@ -3056,36 +3246,36 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="23" t="s">
-        <v>136</v>
+      <c r="C7" s="24"/>
+      <c r="D7" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G7" s="25" t="s">
         <v>171</v>
       </c>
+      <c r="G7" s="20" t="s">
+        <v>172</v>
+      </c>
       <c r="H7" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="J7" s="17" t="s">
         <v>173</v>
       </c>
+      <c r="J7" s="24" t="s">
+        <v>174</v>
+      </c>
       <c r="K7" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1">
@@ -3093,34 +3283,34 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="23" t="s">
-        <v>150</v>
+      <c r="B8" s="38"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="18" t="s">
+        <v>151</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" s="25" t="s">
         <v>179</v>
       </c>
+      <c r="G8" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="H8" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="J8" s="17" t="s">
         <v>181</v>
       </c>
+      <c r="J8" s="24" t="s">
+        <v>182</v>
+      </c>
       <c r="K8" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1">
@@ -3132,21 +3322,21 @@
         <v>39</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="23" t="s">
-        <v>181</v>
+      <c r="D9" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" s="25" t="s">
         <v>187</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="H9" s="11"/>
       <c r="N9" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1">
@@ -3154,17 +3344,19 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="16" t="s">
+        <v>190</v>
+      </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="27"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="11"/>
       <c r="N10" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
@@ -3172,60 +3364,48 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="B11" s="53"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="25"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="11"/>
+      <c r="N11" s="60"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="15">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="B12" s="43"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>192</v>
-      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="11"/>
+      <c r="N12" s="60"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="15">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>193</v>
+      <c r="B13" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="23" t="s">
-        <v>173</v>
-      </c>
+      <c r="D13" s="18"/>
       <c r="E13" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>196</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
@@ -3233,22 +3413,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>197</v>
-      </c>
+      <c r="B14" s="53"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="48" t="s">
-        <v>173</v>
-      </c>
+      <c r="D14" s="30"/>
       <c r="E14" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>200</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1">
@@ -3256,160 +3428,182 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>201</v>
-      </c>
+      <c r="B15" s="43"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="48" t="s">
-        <v>173</v>
-      </c>
+      <c r="D15" s="30"/>
       <c r="E15" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>204</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="25"/>
+        <v>58</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>196</v>
+      </c>
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1">
       <c r="A17" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="23" t="s">
-        <v>136</v>
+      <c r="B17" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="H17" s="11"/>
+        <v>199</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1">
       <c r="A18" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A18:A20" si="1">ROW()-1</f>
         <v>17</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="23" t="s">
-        <v>136</v>
+      <c r="B18" s="43"/>
+      <c r="C18" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="H18" s="11"/>
+        <v>202</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1">
       <c r="A19" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>209</v>
+      <c r="B19" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" s="11"/>
+        <v>206</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1">
       <c r="A20" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="11"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1">
       <c r="A21" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1">
       <c r="A22" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="F22" s="23" t="s">
+      <c r="B22" s="43"/>
+      <c r="C22" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="F22" s="16" t="s">
         <v>216</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>217</v>
       </c>
       <c r="H22" s="11"/>
     </row>
@@ -3418,21 +3612,23 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>136</v>
+      <c r="B23" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>182</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="G23" s="25" t="s">
         <v>219</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>221</v>
       </c>
       <c r="H23" s="11"/>
     </row>
@@ -3441,21 +3637,23 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>136</v>
+      <c r="B24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="G24" s="28" t="s">
         <v>222</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>224</v>
       </c>
       <c r="H24" s="11"/>
     </row>
@@ -3464,48 +3662,42 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>150</v>
+      <c r="B25" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="H25" s="11" t="s">
         <v>225</v>
       </c>
+      <c r="F25" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1">
       <c r="A26" s="15">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="F26" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="G26" s="25" t="s">
+      <c r="B26" s="38"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>228</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>229</v>
       </c>
       <c r="H26" s="11"/>
     </row>
@@ -3514,21 +3706,21 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>136</v>
+      <c r="B27" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>231</v>
+        <v>158</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="H27" s="11"/>
     </row>
@@ -3537,21 +3729,21 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>234</v>
+      <c r="B28" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="H28" s="11"/>
     </row>
@@ -3560,46 +3752,44 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>238</v>
-      </c>
+      <c r="B29" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1">
       <c r="A30" s="15">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>240</v>
+      <c r="B30" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="H30" s="11"/>
     </row>
@@ -3608,376 +3798,372 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="G31" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>243</v>
-      </c>
+      <c r="B31" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1">
       <c r="A32" s="15">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="H32" s="23"/>
+      <c r="B32" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1">
       <c r="A33" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>214</v>
-      </c>
+      <c r="B33" s="43"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="H33" s="23"/>
+        <v>137</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1">
       <c r="A34" s="15">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="H34" s="23"/>
+      <c r="B34" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1">
       <c r="A35" s="15">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="H35" s="23"/>
+      <c r="B35" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1">
       <c r="A36" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="H36" s="23"/>
+      <c r="B36" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1">
       <c r="A37" s="15">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="H37" s="23"/>
+      <c r="B37" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1">
       <c r="A38" s="15">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="H38" s="23"/>
+      <c r="B38" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1">
       <c r="A39" s="15">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="F39" s="22" t="s">
+      <c r="B39" s="53"/>
+      <c r="C39" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G39" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="G39" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="H39" s="23"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1">
       <c r="A40" s="15">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E40" s="25" t="s">
+      <c r="B40" s="53"/>
+      <c r="C40" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F40" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="G40" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="G40" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="H40" s="23"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1">
       <c r="A41" s="15">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>136</v>
+      <c r="B41" s="43"/>
+      <c r="C41" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="E41" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G41" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="H41" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1">
       <c r="A42" s="15">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="17" t="s">
-        <v>214</v>
+      <c r="B42" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>258</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E42" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F42" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="G42" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="G42" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="H42" s="23"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1">
       <c r="A43" s="15">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>150</v>
+      <c r="B43" s="54"/>
+      <c r="C43" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="F43" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="G43" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="H43" s="23" t="s">
-        <v>276</v>
-      </c>
+      <c r="H43" s="11"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1">
       <c r="A44" s="15">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="11" t="s">
+      <c r="B44" s="54"/>
+      <c r="C44" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G44" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="H44" s="23"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1">
       <c r="A45" s="15">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E45" s="16" t="s">
+      <c r="B45" s="54"/>
+      <c r="C45" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="G45" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="F45" s="52" t="s">
+      <c r="H45" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="G45" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1">
       <c r="A46" s="15">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E46" s="11" t="s">
+      <c r="B46" s="54"/>
+      <c r="C46" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G46" s="20" t="s">
         <v>283</v>
-      </c>
-      <c r="F46" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>285</v>
       </c>
       <c r="H46" s="11"/>
     </row>
@@ -3986,139 +4172,682 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="F47" s="50" t="s">
+      <c r="B47" s="54"/>
+      <c r="C47" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="G47" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1">
       <c r="A48" s="15">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>173</v>
+      <c r="B48" s="55"/>
+      <c r="C48" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>182</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="F48" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="H48" s="11"/>
+        <v>219</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H48" s="18"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1">
       <c r="A49" s="15">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="F49" s="50" t="s">
-        <v>291</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>293</v>
-      </c>
+      <c r="B49" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="H49" s="18"/>
     </row>
     <row r="50" spans="1:8" ht="18" customHeight="1">
       <c r="A50" s="15">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="11"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H50" s="18"/>
     </row>
     <row r="51" spans="1:8" ht="18" customHeight="1">
       <c r="A51" s="15">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="11"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:8" ht="18" customHeight="1">
       <c r="A52" s="15">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="11"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="H52" s="18"/>
+    </row>
+    <row r="53" spans="1:8" ht="18" customHeight="1">
+      <c r="A53" s="15">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="38"/>
+      <c r="C53" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" spans="1:8" ht="18" customHeight="1">
+      <c r="A54" s="15">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="38"/>
+      <c r="C54" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="H54" s="18"/>
+    </row>
+    <row r="55" spans="1:8" ht="18" customHeight="1">
+      <c r="A55" s="15">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="38"/>
+      <c r="C55" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="H55" s="18"/>
+    </row>
+    <row r="56" spans="1:8" ht="18" customHeight="1">
+      <c r="A56" s="15">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" spans="1:8" ht="18" customHeight="1">
+      <c r="A57" s="15">
+        <f>ROW()-1</f>
+        <v>56</v>
+      </c>
+      <c r="B57" s="38"/>
+      <c r="C57" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="H57" s="18"/>
+    </row>
+    <row r="58" spans="1:8" ht="18" customHeight="1">
+      <c r="A58" s="15">
+        <f>ROW()-1</f>
+        <v>57</v>
+      </c>
+      <c r="B58" s="38"/>
+      <c r="C58" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H58" s="18"/>
+    </row>
+    <row r="59" spans="1:8" ht="18" customHeight="1">
+      <c r="A59" s="15">
+        <f>ROW()-1</f>
+        <v>58</v>
+      </c>
+      <c r="B59" s="38"/>
+      <c r="C59" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="18" customHeight="1">
+      <c r="A60" s="15">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" spans="1:8" ht="18" customHeight="1">
+      <c r="A61" s="15">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="38"/>
+      <c r="C61" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="F61" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="G61" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="H61" s="11"/>
+    </row>
+    <row r="62" spans="1:8" ht="18" customHeight="1">
+      <c r="A62" s="15">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="38"/>
+      <c r="C62" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" spans="1:8" ht="18" customHeight="1">
+      <c r="A63" s="15">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="38"/>
+      <c r="C63" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="F63" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" spans="1:8" ht="18" customHeight="1">
+      <c r="A64" s="15">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="38"/>
+      <c r="C64" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" spans="1:8" ht="18" customHeight="1">
+      <c r="A65" s="15">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="38"/>
+      <c r="C65" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F65" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="18" customHeight="1">
+      <c r="A66" s="15">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="1:8" ht="18" customHeight="1">
+      <c r="A67" s="15">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="53"/>
+      <c r="C67" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="H67" s="11"/>
+    </row>
+    <row r="68" spans="1:8" ht="18" customHeight="1">
+      <c r="A68" s="15">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="53"/>
+      <c r="C68" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" spans="1:8" ht="18" customHeight="1">
+      <c r="A69" s="15">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="53"/>
+      <c r="C69" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="1:8" ht="18" customHeight="1">
+      <c r="A70" s="15">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="53"/>
+      <c r="C70" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="1:8" ht="18" customHeight="1">
+      <c r="A71" s="15">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="53"/>
+      <c r="C71" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" spans="1:8" ht="18" customHeight="1">
+      <c r="A72" s="15">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="43"/>
+      <c r="C72" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="1:8" ht="18" customHeight="1">
+      <c r="A73" s="56">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="G73" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="H73" s="14"/>
+    </row>
+    <row r="74" spans="1:8" ht="18" customHeight="1">
+      <c r="A74" s="4">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="H74" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="16">
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B66:B72"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13 D33:D34 D40:D42 D44:D46 D16:D24 D26:D27 D50:D1048576" xr:uid="{DE544392-D59F-4186-83BD-F554BE8C169C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:D50 D56:D58 D60:D62 D42:D43 D66:D67 D21 D2:D19 D73:D1048576 D24:D40" xr:uid="{DE544392-D59F-4186-83BD-F554BE8C169C}">
       <formula1>"GET,POST,PATCH/PUT,DELETE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{EC46DEB6-FA74-4A07-AA14-86FC8806EF26}">

--- a/doc/01_画面設計/wicum_機能要件.xlsx
+++ b/doc/01_画面設計/wicum_機能要件.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1501" documentId="5_{2E202A6F-B72E-4C0B-998E-A71783A98DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67355E19-0059-4CCF-8714-B06FCB9655F1}"/>
+  <xr:revisionPtr revIDLastSave="1549" documentId="5_{2E202A6F-B72E-4C0B-998E-A71783A98DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2987F2CB-8678-4294-AAC0-8B0BEF4B692C}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="366">
   <si>
     <t>大機能</t>
   </si>
@@ -651,10 +651,52 @@
     <t>/goals</t>
   </si>
   <si>
+    <t>goals#show</t>
+  </si>
+  <si>
+    <t>目標設定画面を表示する。</t>
+  </si>
+  <si>
+    <t>★目標設定：やりながら覚える。やってみないとわからない。</t>
+  </si>
+  <si>
     <t>delete '/videos/:id',      to: 'videos#destroy'</t>
   </si>
   <si>
+    <t>goals#create</t>
+  </si>
+  <si>
+    <t>仮</t>
+  </si>
+  <si>
+    <t>/goals/:id</t>
+  </si>
+  <si>
+    <t>goals#update</t>
+  </si>
+  <si>
+    <t>goals#destroy</t>
+  </si>
+  <si>
     <t>/tasks</t>
+  </si>
+  <si>
+    <t>tasks#show</t>
+  </si>
+  <si>
+    <t>★タスク管理：やりながら覚える。やってみないとわからない。</t>
+  </si>
+  <si>
+    <t>tasks#create</t>
+  </si>
+  <si>
+    <t>/tasks/:id</t>
+  </si>
+  <si>
+    <t>tasks#update</t>
+  </si>
+  <si>
+    <t>tasks#destroy</t>
   </si>
   <si>
     <t>user</t>
@@ -1205,7 +1247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1227,6 +1269,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,7 +1471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1486,9 +1534,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1568,15 +1613,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1935,13 +2014,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="25" t="s">
@@ -1956,9 +2035,9 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="47"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="25" t="s">
         <v>12</v>
       </c>
@@ -1971,13 +2050,13 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="112.5">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -1992,9 +2071,9 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="51"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="25" t="s">
         <v>17</v>
       </c>
@@ -2007,9 +2086,9 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="51"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="25" t="s">
         <v>19</v>
       </c>
@@ -2022,9 +2101,9 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="51"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="25" t="s">
         <v>21</v>
       </c>
@@ -2037,8 +2116,8 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="51"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2054,13 +2133,13 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="37" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -2075,9 +2154,9 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="49"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="25" t="s">
         <v>26</v>
       </c>
@@ -2090,9 +2169,9 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="49"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="25" t="s">
         <v>27</v>
       </c>
@@ -2105,9 +2184,9 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="37.5">
-      <c r="A12" s="49"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="25" t="s">
         <v>28</v>
       </c>
@@ -2120,8 +2199,8 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="49"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
@@ -2137,8 +2216,8 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="37.5">
-      <c r="A14" s="49"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
@@ -2154,8 +2233,8 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="49"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="24" t="s">
         <v>34</v>
       </c>
@@ -2171,11 +2250,11 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="56.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="41" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2190,9 +2269,9 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="50"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="43"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
@@ -2226,10 +2305,10 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="187.5">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="41" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2249,8 +2328,8 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="41"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
@@ -2266,13 +2345,13 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="112.5">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -2289,9 +2368,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="56.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="38"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="7" t="s">
         <v>51</v>
       </c>
@@ -2304,9 +2383,9 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="39"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="38"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="6" t="s">
         <v>52</v>
       </c>
@@ -2319,9 +2398,9 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="39"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="38"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="6" t="s">
         <v>53</v>
       </c>
@@ -2334,9 +2413,9 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="39"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="38"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="6" t="s">
         <v>54</v>
       </c>
@@ -2349,8 +2428,8 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="39"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="4" t="s">
         <v>55</v>
       </c>
@@ -2366,8 +2445,8 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="39"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="4" t="s">
         <v>42</v>
       </c>
@@ -2383,10 +2462,10 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2404,8 +2483,8 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="51"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="4" t="s">
         <v>62</v>
       </c>
@@ -2421,8 +2500,8 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="51"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="4" t="s">
         <v>64</v>
       </c>
@@ -2438,8 +2517,8 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="37.5">
-      <c r="A31" s="51"/>
-      <c r="B31" s="38"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="4" t="s">
         <v>66</v>
       </c>
@@ -2455,8 +2534,8 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="51"/>
-      <c r="B32" s="38"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="4" t="s">
         <v>68</v>
       </c>
@@ -2472,8 +2551,8 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="51"/>
-      <c r="B33" s="38"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="4" t="s">
         <v>70</v>
       </c>
@@ -2489,32 +2568,32 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="51"/>
-      <c r="B34" s="24" t="s">
+      <c r="A34" s="50"/>
+      <c r="B34" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7" ht="112.5">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="37" t="s">
         <v>76</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -2529,9 +2608,9 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="51"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="5" t="s">
         <v>78</v>
       </c>
@@ -2544,10 +2623,10 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="51" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -2565,8 +2644,8 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="51"/>
-      <c r="B38" s="52"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="4" t="s">
         <v>14</v>
       </c>
@@ -2582,8 +2661,8 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="51"/>
-      <c r="B39" s="52" t="s">
+      <c r="A39" s="50"/>
+      <c r="B39" s="51" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2601,8 +2680,8 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="51"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="4" t="s">
         <v>39</v>
       </c>
@@ -2618,8 +2697,8 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="51"/>
-      <c r="B41" s="52"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="4" t="s">
         <v>85</v>
       </c>
@@ -2635,10 +2714,10 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="37" t="s">
         <v>88</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -2656,8 +2735,8 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="51"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="4" t="s">
         <v>75</v>
       </c>
@@ -2673,8 +2752,8 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="51"/>
-      <c r="B44" s="38" t="s">
+      <c r="A44" s="50"/>
+      <c r="B44" s="37" t="s">
         <v>92</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2692,8 +2771,8 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="51"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="4" t="s">
         <v>95</v>
       </c>
@@ -2709,8 +2788,8 @@
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="51"/>
-      <c r="B46" s="38"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="4" t="s">
         <v>97</v>
       </c>
@@ -2726,10 +2805,10 @@
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" ht="37.5">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="37" t="s">
         <v>100</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2747,8 +2826,8 @@
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="51"/>
-      <c r="B48" s="38"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="4" t="s">
         <v>102</v>
       </c>
@@ -2764,8 +2843,8 @@
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="51"/>
-      <c r="B49" s="38" t="s">
+      <c r="A49" s="50"/>
+      <c r="B49" s="37" t="s">
         <v>104</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -2783,8 +2862,8 @@
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="51"/>
-      <c r="B50" s="38"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="4" t="s">
         <v>106</v>
       </c>
@@ -2800,7 +2879,7 @@
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="51"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="4" t="s">
         <v>108</v>
       </c>
@@ -2819,8 +2898,8 @@
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" ht="37.5">
-      <c r="A52" s="51"/>
-      <c r="B52" s="38" t="s">
+      <c r="A52" s="50"/>
+      <c r="B52" s="37" t="s">
         <v>110</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -2838,8 +2917,8 @@
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="51"/>
-      <c r="B53" s="38"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="4" t="s">
         <v>112</v>
       </c>
@@ -2855,8 +2934,8 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="51"/>
-      <c r="B54" s="52" t="s">
+      <c r="A54" s="50"/>
+      <c r="B54" s="51" t="s">
         <v>114</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -2874,24 +2953,24 @@
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="48"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="58" t="s">
+      <c r="A55" s="47"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="27" t="s">
+      <c r="F55" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="58"/>
+      <c r="G55" s="62"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="51" t="s">
+      <c r="A56" s="50" t="s">
         <v>119</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -2912,7 +2991,7 @@
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="51"/>
+      <c r="A57" s="50"/>
       <c r="B57" s="4" t="s">
         <v>123</v>
       </c>
@@ -2993,7 +3072,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3007,11 +3086,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE53AE5C-0E87-4B54-99E9-8B6AA7CF06B3}">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -3037,10 +3116,10 @@
       <c r="A1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>129</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -3077,7 +3156,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>137</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -3107,14 +3186,14 @@
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1">
       <c r="A3" s="15">
-        <f t="shared" ref="A3:A74" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A76" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="24"/>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>137</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -3145,7 +3224,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="24"/>
       <c r="D4" s="18" t="s">
         <v>151</v>
@@ -3178,7 +3257,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="24"/>
@@ -3213,7 +3292,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="24"/>
       <c r="D6" s="18" t="s">
         <v>151</v>
@@ -3246,7 +3325,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="24"/>
@@ -3283,7 +3362,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="24"/>
       <c r="D8" s="18" t="s">
         <v>151</v>
@@ -3344,19 +3423,27 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="41" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="31"/>
+      <c r="D10" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="E10" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="11"/>
+      <c r="F10" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>193</v>
+      </c>
       <c r="N10" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
@@ -3364,296 +3451,319 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="11"/>
-      <c r="N11" s="60"/>
+      <c r="F11" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="N11" s="58"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="11"/>
-      <c r="N12" s="60"/>
+      <c r="D12" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="N12" s="58"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>45</v>
-      </c>
+      <c r="B13" s="42"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="11"/>
+      <c r="D13" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="N13" s="58"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="41" t="s">
+        <v>45</v>
+      </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="30"/>
+      <c r="D14" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="E14" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="11"/>
+        <v>200</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="11" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1">
       <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="30"/>
+      <c r="D15" s="18" t="s">
+        <v>151</v>
+      </c>
       <c r="E15" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="11"/>
+        <v>200</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="15">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="G16" s="34" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1">
       <c r="A17" s="15">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>137</v>
+      <c r="B17" s="42"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="28" t="s">
+        <v>182</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="H17" s="18"/>
+        <v>206</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="11" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1">
       <c r="A18" s="15">
-        <f t="shared" ref="A18:A20" si="1">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>17</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="H18" s="18"/>
+      <c r="B18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1">
       <c r="A19" s="15">
-        <f t="shared" si="1"/>
+        <f>ROW()-1</f>
         <v>18</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>204</v>
+      <c r="B19" s="41" t="s">
+        <v>211</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>137</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1">
       <c r="A20" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A20:A22" si="1">ROW()-1</f>
         <v>19</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>174</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1">
       <c r="A21" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B21" s="42" t="s">
-        <v>211</v>
+      <c r="B21" s="41" t="s">
+        <v>218</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>137</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1">
       <c r="A22" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D22" s="59" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="H22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1">
       <c r="A23" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>182</v>
+      <c r="B23" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>220</v>
+        <v>226</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>227</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="H23" s="11"/>
+        <v>228</v>
+      </c>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1">
       <c r="A24" s="15">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="B24" s="42"/>
       <c r="C24" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>224</v>
+        <v>207</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>231</v>
       </c>
       <c r="H24" s="11"/>
     </row>
@@ -3662,65 +3772,71 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="18" t="s">
+      <c r="B25" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="18" customHeight="1">
+      <c r="A26" s="64">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1">
-      <c r="A26" s="15">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="H26" s="11"/>
+      <c r="E26" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1">
       <c r="A27" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>230</v>
+      <c r="B27" s="37" t="s">
+        <v>75</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="18" t="s">
         <v>137</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="H27" s="11"/>
     </row>
@@ -3729,21 +3845,19 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>231</v>
-      </c>
+      <c r="B28" s="37"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="30" t="s">
-        <v>137</v>
+      <c r="D28" s="29" t="s">
+        <v>151</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>147</v>
+        <v>239</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>243</v>
       </c>
       <c r="H28" s="11"/>
     </row>
@@ -3753,20 +3867,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>196</v>
+      <c r="E29" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="H29" s="11"/>
     </row>
@@ -3776,20 +3890,20 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>188</v>
+        <v>245</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="H30" s="11"/>
     </row>
@@ -3799,20 +3913,20 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>237</v>
+      <c r="E31" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>210</v>
       </c>
       <c r="H31" s="11"/>
     </row>
@@ -3821,21 +3935,21 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="C32" s="4"/>
+      <c r="B32" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" s="15"/>
       <c r="D32" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>239</v>
+        <v>182</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>241</v>
+        <v>187</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="H32" s="11"/>
     </row>
@@ -3844,19 +3958,21 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="43"/>
+      <c r="B33" s="15" t="s">
+        <v>248</v>
+      </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>244</v>
+      <c r="E33" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>251</v>
       </c>
       <c r="H33" s="11"/>
     </row>
@@ -3865,21 +3981,21 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>245</v>
+      <c r="B34" s="41" t="s">
+        <v>252</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>225</v>
+      <c r="E34" s="20" t="s">
+        <v>253</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>227</v>
+        <v>254</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>255</v>
       </c>
       <c r="H34" s="11"/>
     </row>
@@ -3888,21 +4004,19 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>246</v>
-      </c>
+      <c r="B35" s="42"/>
       <c r="C35" s="4"/>
       <c r="D35" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>249</v>
+        <v>137</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>258</v>
       </c>
       <c r="H35" s="11"/>
     </row>
@@ -3912,20 +4026,20 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>251</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>252</v>
+      <c r="D36" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H36" s="11"/>
     </row>
@@ -3935,20 +4049,20 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="11" t="s">
         <v>151</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H37" s="11"/>
     </row>
@@ -3957,23 +4071,21 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>258</v>
-      </c>
+      <c r="B38" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>225</v>
+        <v>151</v>
+      </c>
+      <c r="E38" s="56" t="s">
+        <v>265</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H38" s="11"/>
     </row>
@@ -3982,21 +4094,21 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="24" t="s">
-        <v>258</v>
-      </c>
+      <c r="B39" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="11" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>262</v>
+        <v>269</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>270</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H39" s="11"/>
     </row>
@@ -4005,21 +4117,23 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="53"/>
+      <c r="B40" s="41" t="s">
+        <v>100</v>
+      </c>
       <c r="C40" s="24" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>137</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>266</v>
+        <v>239</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>274</v>
       </c>
       <c r="H40" s="11"/>
     </row>
@@ -4028,48 +4142,44 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="43"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>151</v>
+        <v>272</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>269</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1">
       <c r="A42" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="54" t="s">
-        <v>104</v>
-      </c>
+      <c r="B42" s="52"/>
       <c r="C42" s="24" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>137</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>272</v>
+        <v>278</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>280</v>
       </c>
       <c r="H42" s="11"/>
     </row>
@@ -4078,44 +4188,48 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="54"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>137</v>
+        <v>272</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="H43" s="11"/>
+        <v>275</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1">
       <c r="A44" s="15">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="54"/>
+      <c r="B44" s="53" t="s">
+        <v>104</v>
+      </c>
       <c r="C44" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D44" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>276</v>
+      <c r="E44" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>285</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H44" s="11"/>
     </row>
@@ -4124,46 +4238,44 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="54"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D45" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>278</v>
+      <c r="E45" s="11" t="s">
+        <v>233</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>281</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1">
       <c r="A46" s="15">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="54"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="24" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="H46" s="11"/>
     </row>
@@ -4172,24 +4284,24 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="54"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="24" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="F47" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="G47" s="34" t="s">
-        <v>285</v>
+        <v>137</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>294</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1">
@@ -4197,69 +4309,69 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="55"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="H48" s="18"/>
+        <v>272</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1">
       <c r="A49" s="15">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="38" t="s">
-        <v>89</v>
-      </c>
+      <c r="B49" s="53"/>
       <c r="C49" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="H49" s="18"/>
+        <v>272</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="18" customHeight="1">
       <c r="A50" s="15">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="38"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>244</v>
+        <v>272</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="H50" s="18"/>
     </row>
@@ -4268,21 +4380,23 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="38"/>
+      <c r="B51" s="37" t="s">
+        <v>89</v>
+      </c>
       <c r="C51" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D51" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>137</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>288</v>
+        <v>253</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="H51" s="18"/>
     </row>
@@ -4291,21 +4405,21 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="38"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="G52" s="18" t="s">
         <v>258</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>292</v>
       </c>
       <c r="H52" s="18"/>
     </row>
@@ -4314,21 +4428,21 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="24" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H53" s="18"/>
     </row>
@@ -4337,21 +4451,21 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="38"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="24" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="H54" s="18"/>
     </row>
@@ -4360,21 +4474,21 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="38"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>182</v>
+        <v>272</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>242</v>
+        <v>307</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="H55" s="18"/>
     </row>
@@ -4383,69 +4497,69 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="38" t="s">
-        <v>110</v>
-      </c>
+      <c r="B56" s="37"/>
       <c r="C56" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>137</v>
+        <v>272</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>301</v>
+        <v>256</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>310</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="H56" s="18"/>
     </row>
     <row r="57" spans="1:8" ht="18" customHeight="1">
       <c r="A57" s="15">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="38"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>305</v>
+        <v>272</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>313</v>
       </c>
       <c r="H57" s="18"/>
     </row>
     <row r="58" spans="1:8" ht="18" customHeight="1">
       <c r="A58" s="15">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="38"/>
+      <c r="B58" s="37" t="s">
+        <v>110</v>
+      </c>
       <c r="C58" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D58" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D58" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="E58" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>308</v>
+      <c r="E58" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>316</v>
       </c>
       <c r="H58" s="18"/>
     </row>
@@ -4454,117 +4568,117 @@
         <f>ROW()-1</f>
         <v>58</v>
       </c>
-      <c r="B59" s="38"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>151</v>
+        <v>272</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="H59" s="18" t="s">
-        <v>311</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8" ht="18" customHeight="1">
       <c r="A60" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>59</v>
       </c>
-      <c r="B60" s="38" t="s">
-        <v>115</v>
-      </c>
+      <c r="B60" s="37"/>
       <c r="C60" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D60" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>137</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>313</v>
+        <v>320</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>321</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H60" s="18"/>
     </row>
     <row r="61" spans="1:8" ht="18" customHeight="1">
       <c r="A61" s="15">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>60</v>
       </c>
-      <c r="B61" s="38"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="F61" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="G61" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="H61" s="11"/>
+      <c r="F61" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="18" customHeight="1">
       <c r="A62" s="15">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="38"/>
+      <c r="B62" s="37" t="s">
+        <v>115</v>
+      </c>
       <c r="C62" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D62" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D62" s="20" t="s">
         <v>137</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="F62" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="G62" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="H62" s="11"/>
+        <v>326</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="H62" s="18"/>
     </row>
     <row r="63" spans="1:8" ht="18" customHeight="1">
       <c r="A63" s="15">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="38"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="F63" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="G63" s="23" t="s">
-        <v>322</v>
+        <v>272</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F63" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="G63" s="35" t="s">
+        <v>331</v>
       </c>
       <c r="H63" s="11"/>
     </row>
@@ -4573,21 +4687,21 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="38"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>174</v>
+        <v>272</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="F64" s="33" t="s">
-        <v>324</v>
+        <v>332</v>
+      </c>
+      <c r="F64" s="32" t="s">
+        <v>333</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H64" s="11"/>
     </row>
@@ -4596,48 +4710,44 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="38"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="24" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="F65" s="33" t="s">
         <v>326</v>
       </c>
+      <c r="F65" s="32" t="s">
+        <v>335</v>
+      </c>
       <c r="G65" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>328</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="H65" s="11"/>
     </row>
     <row r="66" spans="1:8" ht="18" customHeight="1">
       <c r="A66" s="15">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="42" t="s">
-        <v>117</v>
-      </c>
+      <c r="B66" s="37"/>
       <c r="C66" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>137</v>
+        <v>272</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="G66" s="20" t="s">
-        <v>331</v>
+        <v>337</v>
+      </c>
+      <c r="F66" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>339</v>
       </c>
       <c r="H66" s="11"/>
     </row>
@@ -4646,208 +4756,258 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B67" s="53"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D67" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F67" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="18" customHeight="1">
+      <c r="A68" s="64">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D68" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="E67" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="G67" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="H67" s="11"/>
-    </row>
-    <row r="68" spans="1:8" ht="18" customHeight="1">
-      <c r="A68" s="15">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="B68" s="53"/>
-      <c r="C68" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D68" s="24" t="s">
+      <c r="E68" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="F68" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="G68" s="67" t="s">
+        <v>345</v>
+      </c>
+      <c r="H68" s="66"/>
+    </row>
+    <row r="69" spans="1:8" ht="18" customHeight="1">
+      <c r="A69" s="64">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="68"/>
+      <c r="C69" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D69" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="E68" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="H68" s="11"/>
-    </row>
-    <row r="69" spans="1:8" ht="18" customHeight="1">
-      <c r="A69" s="15">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="B69" s="53"/>
-      <c r="C69" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D69" s="24" t="s">
+      <c r="E69" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="F69" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="G69" s="67" t="s">
+        <v>348</v>
+      </c>
+      <c r="H69" s="66"/>
+    </row>
+    <row r="70" spans="1:8" ht="18" customHeight="1">
+      <c r="A70" s="64">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="68"/>
+      <c r="C70" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D70" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="E69" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G69" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="H69" s="11"/>
-    </row>
-    <row r="70" spans="1:8" ht="18" customHeight="1">
-      <c r="A70" s="15">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="B70" s="53"/>
-      <c r="C70" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D70" s="24" t="s">
+      <c r="E70" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="F70" s="66" t="s">
+        <v>350</v>
+      </c>
+      <c r="G70" s="67" t="s">
+        <v>351</v>
+      </c>
+      <c r="H70" s="66"/>
+    </row>
+    <row r="71" spans="1:8" ht="18" customHeight="1">
+      <c r="A71" s="64">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="68"/>
+      <c r="C71" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D71" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="F71" s="66" t="s">
+        <v>353</v>
+      </c>
+      <c r="G71" s="67" t="s">
+        <v>354</v>
+      </c>
+      <c r="H71" s="66"/>
+    </row>
+    <row r="72" spans="1:8" ht="18" customHeight="1">
+      <c r="A72" s="64">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="68"/>
+      <c r="C72" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D72" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="E70" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="G70" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" spans="1:8" ht="18" customHeight="1">
-      <c r="A71" s="15">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="B71" s="53"/>
-      <c r="C71" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D71" s="24" t="s">
+      <c r="E72" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="F72" s="66" t="s">
+        <v>355</v>
+      </c>
+      <c r="G72" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="H72" s="66"/>
+    </row>
+    <row r="73" spans="1:8" ht="18" customHeight="1">
+      <c r="A73" s="64">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="68"/>
+      <c r="C73" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D73" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="E71" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="G71" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="H71" s="11"/>
-    </row>
-    <row r="72" spans="1:8" ht="18" customHeight="1">
-      <c r="A72" s="15">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="B72" s="43"/>
-      <c r="C72" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D72" s="29" t="s">
+      <c r="E73" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="F73" s="66" t="s">
+        <v>357</v>
+      </c>
+      <c r="G73" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="H73" s="66"/>
+    </row>
+    <row r="74" spans="1:8" ht="18" customHeight="1">
+      <c r="A74" s="64">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="69"/>
+      <c r="C74" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D74" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="E72" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="G72" s="20" t="s">
+      <c r="E74" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="H72" s="11"/>
-    </row>
-    <row r="73" spans="1:8" ht="18" customHeight="1">
-      <c r="A73" s="56">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="B73" s="14" t="s">
+      <c r="F74" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="G74" s="67" t="s">
+        <v>360</v>
+      </c>
+      <c r="H74" s="66"/>
+    </row>
+    <row r="75" spans="1:8" ht="18" customHeight="1">
+      <c r="A75" s="55">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C73" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="D73" s="30" t="s">
+      <c r="C75" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="D75" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="E73" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="G73" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="H73" s="14"/>
-    </row>
-    <row r="74" spans="1:8" ht="18" customHeight="1">
-      <c r="A74" s="4">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="B74" s="11" t="s">
+      <c r="E75" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="G75" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="H75" s="14"/>
+    </row>
+    <row r="76" spans="1:8" ht="18" customHeight="1">
+      <c r="A76" s="4">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11" t="s">
+      <c r="C76" s="11"/>
+      <c r="D76" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E74" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="H74" s="11"/>
+      <c r="E76" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="H76" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B66:B72"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:D50 D56:D58 D60:D62 D42:D43 D66:D67 D21 D2:D19 D73:D1048576 D24:D40" xr:uid="{DE544392-D59F-4186-83BD-F554BE8C169C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51:D52 D58:D60 D62:D64 D44:D45 D68:D69 D23 D26:D42 D75:D1048576 D18:D21 D2:D11 D14:D15" xr:uid="{DE544392-D59F-4186-83BD-F554BE8C169C}">
       <formula1>"GET,POST,PATCH/PUT,DELETE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{EC46DEB6-FA74-4A07-AA14-86FC8806EF26}">

--- a/doc/01_画面設計/wicum_機能要件.xlsx
+++ b/doc/01_画面設計/wicum_機能要件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1549" documentId="5_{2E202A6F-B72E-4C0B-998E-A71783A98DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2987F2CB-8678-4294-AAC0-8B0BEF4B692C}"/>
+  <xr:revisionPtr revIDLastSave="1555" documentId="5_{2E202A6F-B72E-4C0B-998E-A71783A98DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E11972D3-80DE-4DD5-AEE9-3846E795ADCB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能要件" sheetId="1" r:id="rId1"/>
@@ -1247,7 +1247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1269,12 +1269,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1524,21 +1518,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1562,42 +1541,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1607,55 +1620,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1973,9 +1967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2014,277 +2008,277 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="46"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="25" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="36" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="112.5">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="50"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="25" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="50"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="25" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="36" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="50"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="25" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="50"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="36" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="48"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="25" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="36" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="48"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="25" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="37.5">
-      <c r="A12" s="48"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="25" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="48"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="37.5">
-      <c r="A14" s="48"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="36" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="48"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="24" t="s">
+      <c r="A15" s="50"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="32" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="36" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="56.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="43" t="s">
+      <c r="A16" s="50"/>
+      <c r="B16" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="53" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="36" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="49"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="42"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="36" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2296,19 +2290,19 @@
       <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="187.5">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="53" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2317,10 +2311,10 @@
       <c r="D19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="36" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -2328,39 +2322,39 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="40"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="36" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="112.5">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="45" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="36" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -2368,104 +2362,104 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="56.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="38"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="38"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="36" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="38"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="38"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="36" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="38"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="36" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="45" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2474,159 +2468,159 @@
       <c r="D28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="36" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="50"/>
-      <c r="B29" s="37"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="36" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="50"/>
-      <c r="B30" s="37"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="36" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="37.5">
-      <c r="A31" s="50"/>
-      <c r="B31" s="37"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="50"/>
-      <c r="B32" s="37"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="36" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="50"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="50"/>
-      <c r="B34" s="59" t="s">
+      <c r="A34" s="44"/>
+      <c r="B34" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="61" t="s">
+      <c r="F34" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="60"/>
+      <c r="G34" s="70"/>
     </row>
     <row r="35" spans="1:7" ht="112.5">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="45" t="s">
         <v>76</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="50"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="46" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -2635,34 +2629,34 @@
       <c r="D37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="36" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="50"/>
-      <c r="B38" s="51"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="36" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="50"/>
-      <c r="B39" s="51" t="s">
+      <c r="A39" s="44"/>
+      <c r="B39" s="46" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2671,53 +2665,53 @@
       <c r="D39" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="36" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="50"/>
-      <c r="B40" s="51"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="50"/>
-      <c r="B41" s="51"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="45" t="s">
         <v>88</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -2726,34 +2720,34 @@
       <c r="D42" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="50"/>
-      <c r="B43" s="37"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="36" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="50"/>
-      <c r="B44" s="37" t="s">
+      <c r="A44" s="44"/>
+      <c r="B44" s="45" t="s">
         <v>92</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2762,53 +2756,53 @@
       <c r="D44" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="36" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="50"/>
-      <c r="B45" s="37"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="50"/>
-      <c r="B46" s="37"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" ht="37.5">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="45" t="s">
         <v>100</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2817,34 +2811,34 @@
       <c r="D47" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="50"/>
-      <c r="B48" s="37"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="50"/>
-      <c r="B49" s="37" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="45" t="s">
         <v>104</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -2853,33 +2847,33 @@
       <c r="D49" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F49" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="50"/>
-      <c r="B50" s="37"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E50" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="26" t="s">
+      <c r="F50" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="50"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="4" t="s">
         <v>108</v>
       </c>
@@ -2889,17 +2883,17 @@
       <c r="D51" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E51" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F51" s="36" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" ht="37.5">
-      <c r="A52" s="50"/>
-      <c r="B52" s="37" t="s">
+      <c r="A52" s="44"/>
+      <c r="B52" s="45" t="s">
         <v>110</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -2908,34 +2902,34 @@
       <c r="D52" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F52" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="50"/>
-      <c r="B53" s="37"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="50"/>
-      <c r="B54" s="51" t="s">
+      <c r="A54" s="44"/>
+      <c r="B54" s="46" t="s">
         <v>114</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -2944,33 +2938,33 @@
       <c r="D54" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="E54" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="47"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="62" t="s">
+      <c r="A55" s="48"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="62" t="s">
+      <c r="D55" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="E55" s="63" t="s">
+      <c r="E55" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="63" t="s">
+      <c r="F55" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="62"/>
+      <c r="G55" s="73"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="50" t="s">
+      <c r="A56" s="44" t="s">
         <v>119</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -2982,16 +2976,16 @@
       <c r="D56" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E56" s="26" t="s">
+      <c r="E56" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="26" t="s">
+      <c r="F56" s="36" t="s">
         <v>20</v>
       </c>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="50"/>
+      <c r="A57" s="44"/>
       <c r="B57" s="4" t="s">
         <v>123</v>
       </c>
@@ -3001,10 +2995,10 @@
       <c r="D57" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="36" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="4"/>
@@ -3012,22 +3006,12 @@
   </sheetData>
   <autoFilter ref="A1:I56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="33">
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B27"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -3039,12 +3023,22 @@
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{55731E81-CF27-4CD2-A685-40F3C85343DF}">
@@ -3072,7 +3066,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="31" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3088,9 +3082,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE53AE5C-0E87-4B54-99E9-8B6AA7CF06B3}">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -3116,10 +3110,10 @@
       <c r="A1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="26" t="s">
         <v>129</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -3156,7 +3150,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="24" t="s">
         <v>137</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -3171,7 +3165,7 @@
       <c r="H2" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="32" t="s">
         <v>137</v>
       </c>
       <c r="K2" s="13" t="s">
@@ -3189,11 +3183,11 @@
         <f t="shared" ref="A3:A76" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="24" t="s">
         <v>137</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -3206,7 +3200,7 @@
         <v>147</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="32" t="s">
         <v>137</v>
       </c>
       <c r="K3" s="13" t="s">
@@ -3224,8 +3218,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="18" t="s">
         <v>151</v>
       </c>
@@ -3239,7 +3233,7 @@
         <v>154</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="32" t="s">
         <v>137</v>
       </c>
       <c r="K4" s="13" t="s">
@@ -3257,10 +3251,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="18" t="s">
         <v>137</v>
       </c>
@@ -3274,7 +3268,7 @@
         <v>160</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="32" t="s">
         <v>137</v>
       </c>
       <c r="K5" s="13" t="s">
@@ -3292,8 +3286,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="18" t="s">
         <v>151</v>
       </c>
@@ -3307,7 +3301,7 @@
         <v>166</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="32" t="s">
         <v>151</v>
       </c>
       <c r="K6" s="13" t="s">
@@ -3325,10 +3319,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="18" t="s">
         <v>137</v>
       </c>
@@ -3344,7 +3338,7 @@
       <c r="H7" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="32" t="s">
         <v>174</v>
       </c>
       <c r="K7" s="13" t="s">
@@ -3362,8 +3356,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="18" t="s">
         <v>151</v>
       </c>
@@ -3379,7 +3373,7 @@
       <c r="H8" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="32" t="s">
         <v>182</v>
       </c>
       <c r="K8" s="13" t="s">
@@ -3423,7 +3417,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="53" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="4"/>
@@ -3433,7 +3427,7 @@
       <c r="E10" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="43" t="s">
         <v>191</v>
       </c>
       <c r="G10" s="22" t="s">
@@ -3451,7 +3445,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="52"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="4"/>
       <c r="D11" s="18" t="s">
         <v>151</v>
@@ -3462,20 +3456,20 @@
       <c r="F11" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G11" s="35"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="N11" s="58"/>
+      <c r="N11" s="42"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="41" t="s">
         <v>174</v>
       </c>
       <c r="E12" s="22" t="s">
@@ -3484,20 +3478,20 @@
       <c r="F12" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="G12" s="35"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="N12" s="58"/>
+      <c r="N12" s="42"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="42"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="38" t="s">
         <v>182</v>
       </c>
       <c r="E13" s="22" t="s">
@@ -3506,18 +3500,18 @@
       <c r="F13" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G13" s="35"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="N13" s="58"/>
+      <c r="N13" s="42"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="53" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="4"/>
@@ -3527,7 +3521,7 @@
       <c r="E14" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="43" t="s">
         <v>201</v>
       </c>
       <c r="G14" s="20"/>
@@ -3540,7 +3534,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="52"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="4"/>
       <c r="D15" s="18" t="s">
         <v>151</v>
@@ -3561,9 +3555,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="52"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="41" t="s">
         <v>174</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -3572,7 +3566,7 @@
       <c r="F16" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="11" t="s">
         <v>196</v>
       </c>
@@ -3582,9 +3576,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="38" t="s">
         <v>182</v>
       </c>
       <c r="E17" s="11" t="s">
@@ -3593,7 +3587,7 @@
       <c r="F17" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="G17" s="33"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="11" t="s">
         <v>196</v>
       </c>
@@ -3609,7 +3603,7 @@
       <c r="C18" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="24" t="s">
         <v>137</v>
       </c>
       <c r="E18" s="14" t="s">
@@ -3618,7 +3612,7 @@
       <c r="F18" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="28" t="s">
         <v>210</v>
       </c>
       <c r="H18" s="11"/>
@@ -3628,7 +3622,7 @@
         <f>ROW()-1</f>
         <v>18</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="53" t="s">
         <v>211</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -3653,7 +3647,7 @@
         <f t="shared" ref="A20:A22" si="1">ROW()-1</f>
         <v>19</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="15" t="s">
         <v>207</v>
       </c>
@@ -3676,7 +3670,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="53" t="s">
         <v>218</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -3701,11 +3695,11 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="32" t="s">
         <v>174</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -3724,7 +3718,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="53" t="s">
         <v>225</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -3749,11 +3743,11 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="42"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="41" t="s">
         <v>174</v>
       </c>
       <c r="E24" s="16" t="s">
@@ -3778,7 +3772,7 @@
       <c r="C25" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="38" t="s">
         <v>182</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -3793,36 +3787,36 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1">
-      <c r="A26" s="64">
+      <c r="A26" s="62">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="70" t="s">
         <v>207</v>
       </c>
       <c r="D26" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="66" t="s">
+      <c r="E26" s="65" t="s">
         <v>236</v>
       </c>
       <c r="F26" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="H26" s="66"/>
+      <c r="H26" s="65"/>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1">
       <c r="A27" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="45" t="s">
         <v>75</v>
       </c>
       <c r="C27" s="4"/>
@@ -3845,9 +3839,9 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="37"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="24" t="s">
         <v>151</v>
       </c>
       <c r="E28" s="14" t="s">
@@ -3893,7 +3887,7 @@
         <v>245</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="24" t="s">
         <v>137</v>
       </c>
       <c r="E30" s="14" t="s">
@@ -3916,7 +3910,7 @@
         <v>246</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="24" t="s">
         <v>137</v>
       </c>
       <c r="E31" s="14" t="s">
@@ -3925,7 +3919,7 @@
       <c r="F31" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="28" t="s">
         <v>210</v>
       </c>
       <c r="H31" s="11"/>
@@ -3981,7 +3975,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="53" t="s">
         <v>252</v>
       </c>
       <c r="C34" s="4"/>
@@ -4004,7 +3998,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="42"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="4"/>
       <c r="D35" s="11" t="s">
         <v>137</v>
@@ -4078,7 +4072,7 @@
       <c r="D38" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="40" t="s">
         <v>265</v>
       </c>
       <c r="F38" s="18" t="s">
@@ -4117,10 +4111,10 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="32" t="s">
         <v>272</v>
       </c>
       <c r="D40" s="11" t="s">
@@ -4142,8 +4136,8 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="24" t="s">
+      <c r="B41" s="59"/>
+      <c r="C41" s="32" t="s">
         <v>272</v>
       </c>
       <c r="D41" s="11" t="s">
@@ -4152,7 +4146,7 @@
       <c r="E41" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F41" s="24" t="s">
         <v>276</v>
       </c>
       <c r="G41" s="20" t="s">
@@ -4165,8 +4159,8 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="24" t="s">
+      <c r="B42" s="59"/>
+      <c r="C42" s="32" t="s">
         <v>272</v>
       </c>
       <c r="D42" s="11" t="s">
@@ -4188,11 +4182,11 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="24" t="s">
+      <c r="B43" s="54"/>
+      <c r="C43" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="32" t="s">
         <v>151</v>
       </c>
       <c r="E43" s="11" t="s">
@@ -4213,10 +4207,10 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="32" t="s">
         <v>272</v>
       </c>
       <c r="D44" s="11" t="s">
@@ -4225,7 +4219,7 @@
       <c r="E44" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="25" t="s">
         <v>285</v>
       </c>
       <c r="G44" s="20" t="s">
@@ -4238,8 +4232,8 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="24" t="s">
+      <c r="B45" s="60"/>
+      <c r="C45" s="32" t="s">
         <v>272</v>
       </c>
       <c r="D45" s="11" t="s">
@@ -4261,11 +4255,11 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="24" t="s">
+      <c r="B46" s="60"/>
+      <c r="C46" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E46" s="17" t="s">
@@ -4284,11 +4278,11 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="24" t="s">
+      <c r="B47" s="60"/>
+      <c r="C47" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E47" s="17" t="s">
@@ -4309,11 +4303,11 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="53"/>
-      <c r="C48" s="24" t="s">
+      <c r="B48" s="60"/>
+      <c r="C48" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="32" t="s">
         <v>151</v>
       </c>
       <c r="E48" s="17" t="s">
@@ -4332,20 +4326,20 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="53"/>
-      <c r="C49" s="24" t="s">
+      <c r="B49" s="60"/>
+      <c r="C49" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="32" t="s">
         <v>174</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F49" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="G49" s="33" t="s">
+      <c r="G49" s="28" t="s">
         <v>299</v>
       </c>
       <c r="H49" s="11" t="s">
@@ -4357,11 +4351,11 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="54"/>
-      <c r="C50" s="24" t="s">
+      <c r="B50" s="61"/>
+      <c r="C50" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="38" t="s">
         <v>182</v>
       </c>
       <c r="E50" s="11" t="s">
@@ -4380,10 +4374,10 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="32" t="s">
         <v>272</v>
       </c>
       <c r="D51" s="11" t="s">
@@ -4405,8 +4399,8 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="24" t="s">
+      <c r="B52" s="45"/>
+      <c r="C52" s="32" t="s">
         <v>272</v>
       </c>
       <c r="D52" s="11" t="s">
@@ -4428,11 +4422,11 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="24" t="s">
+      <c r="B53" s="45"/>
+      <c r="C53" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E53" s="20" t="s">
@@ -4451,11 +4445,11 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="24" t="s">
+      <c r="B54" s="45"/>
+      <c r="C54" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E54" s="20" t="s">
@@ -4474,11 +4468,11 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="24" t="s">
+      <c r="B55" s="45"/>
+      <c r="C55" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="32" t="s">
         <v>151</v>
       </c>
       <c r="E55" s="20" t="s">
@@ -4497,11 +4491,11 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="37"/>
-      <c r="C56" s="24" t="s">
+      <c r="B56" s="45"/>
+      <c r="C56" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="32" t="s">
         <v>174</v>
       </c>
       <c r="E56" s="20" t="s">
@@ -4520,11 +4514,11 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="24" t="s">
+      <c r="B57" s="45"/>
+      <c r="C57" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="38" t="s">
         <v>182</v>
       </c>
       <c r="E57" s="20" t="s">
@@ -4543,10 +4537,10 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="32" t="s">
         <v>272</v>
       </c>
       <c r="D58" s="20" t="s">
@@ -4568,8 +4562,8 @@
         <f>ROW()-1</f>
         <v>58</v>
       </c>
-      <c r="B59" s="37"/>
-      <c r="C59" s="24" t="s">
+      <c r="B59" s="45"/>
+      <c r="C59" s="32" t="s">
         <v>272</v>
       </c>
       <c r="D59" s="20" t="s">
@@ -4591,8 +4585,8 @@
         <f>ROW()-1</f>
         <v>59</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="24" t="s">
+      <c r="B60" s="45"/>
+      <c r="C60" s="32" t="s">
         <v>272</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -4614,11 +4608,11 @@
         <f>ROW()-1</f>
         <v>60</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="24" t="s">
+      <c r="B61" s="45"/>
+      <c r="C61" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="32" t="s">
         <v>151</v>
       </c>
       <c r="E61" s="11" t="s">
@@ -4639,10 +4633,10 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="32" t="s">
         <v>272</v>
       </c>
       <c r="D62" s="20" t="s">
@@ -4664,8 +4658,8 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="37"/>
-      <c r="C63" s="24" t="s">
+      <c r="B63" s="45"/>
+      <c r="C63" s="32" t="s">
         <v>272</v>
       </c>
       <c r="D63" s="11" t="s">
@@ -4674,10 +4668,10 @@
       <c r="E63" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="F63" s="34" t="s">
+      <c r="F63" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="G63" s="35" t="s">
+      <c r="G63" s="30" t="s">
         <v>331</v>
       </c>
       <c r="H63" s="11"/>
@@ -4687,8 +4681,8 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="37"/>
-      <c r="C64" s="24" t="s">
+      <c r="B64" s="45"/>
+      <c r="C64" s="32" t="s">
         <v>272</v>
       </c>
       <c r="D64" s="11" t="s">
@@ -4697,7 +4691,7 @@
       <c r="E64" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="F64" s="32" t="s">
+      <c r="F64" s="27" t="s">
         <v>333</v>
       </c>
       <c r="G64" s="23" t="s">
@@ -4710,17 +4704,17 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="37"/>
-      <c r="C65" s="24" t="s">
+      <c r="B65" s="45"/>
+      <c r="C65" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="32" t="s">
         <v>151</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="F65" s="32" t="s">
+      <c r="F65" s="27" t="s">
         <v>335</v>
       </c>
       <c r="G65" s="23" t="s">
@@ -4733,17 +4727,17 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="37"/>
-      <c r="C66" s="24" t="s">
+      <c r="B66" s="45"/>
+      <c r="C66" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="32" t="s">
         <v>174</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F66" s="32" t="s">
+      <c r="F66" s="27" t="s">
         <v>338</v>
       </c>
       <c r="G66" s="23" t="s">
@@ -4756,17 +4750,17 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B67" s="37"/>
-      <c r="C67" s="24" t="s">
+      <c r="B67" s="45"/>
+      <c r="C67" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="32" t="s">
         <v>182</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F67" s="32" t="s">
+      <c r="F67" s="27" t="s">
         <v>340</v>
       </c>
       <c r="G67" s="23" t="s">
@@ -4777,180 +4771,180 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="18" customHeight="1">
-      <c r="A68" s="64">
+      <c r="A68" s="62">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B68" s="65" t="s">
+      <c r="B68" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="59" t="s">
+      <c r="C68" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="D68" s="66" t="s">
+      <c r="D68" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E68" s="66" t="s">
+      <c r="E68" s="65" t="s">
         <v>343</v>
       </c>
-      <c r="F68" s="66" t="s">
+      <c r="F68" s="65" t="s">
         <v>344</v>
       </c>
-      <c r="G68" s="67" t="s">
+      <c r="G68" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="H68" s="66"/>
+      <c r="H68" s="65"/>
     </row>
     <row r="69" spans="1:8" ht="18" customHeight="1">
-      <c r="A69" s="64">
+      <c r="A69" s="62">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="B69" s="68"/>
-      <c r="C69" s="59" t="s">
+      <c r="B69" s="67"/>
+      <c r="C69" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="D69" s="66" t="s">
+      <c r="D69" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E69" s="66" t="s">
+      <c r="E69" s="65" t="s">
         <v>346</v>
       </c>
-      <c r="F69" s="66" t="s">
+      <c r="F69" s="65" t="s">
         <v>347</v>
       </c>
-      <c r="G69" s="67" t="s">
+      <c r="G69" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="H69" s="66"/>
+      <c r="H69" s="65"/>
     </row>
     <row r="70" spans="1:8" ht="18" customHeight="1">
-      <c r="A70" s="64">
+      <c r="A70" s="62">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="B70" s="68"/>
-      <c r="C70" s="59" t="s">
+      <c r="B70" s="67"/>
+      <c r="C70" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="D70" s="59" t="s">
+      <c r="D70" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="E70" s="66" t="s">
+      <c r="E70" s="65" t="s">
         <v>349</v>
       </c>
-      <c r="F70" s="66" t="s">
+      <c r="F70" s="65" t="s">
         <v>350</v>
       </c>
-      <c r="G70" s="67" t="s">
+      <c r="G70" s="66" t="s">
         <v>351</v>
       </c>
-      <c r="H70" s="66"/>
+      <c r="H70" s="65"/>
     </row>
     <row r="71" spans="1:8" ht="18" customHeight="1">
-      <c r="A71" s="64">
+      <c r="A71" s="62">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="B71" s="68"/>
-      <c r="C71" s="59" t="s">
+      <c r="B71" s="67"/>
+      <c r="C71" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="D71" s="59" t="s">
+      <c r="D71" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="E71" s="66" t="s">
+      <c r="E71" s="65" t="s">
         <v>352</v>
       </c>
-      <c r="F71" s="66" t="s">
+      <c r="F71" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="G71" s="67" t="s">
+      <c r="G71" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="H71" s="66"/>
+      <c r="H71" s="65"/>
     </row>
     <row r="72" spans="1:8" ht="18" customHeight="1">
-      <c r="A72" s="64">
+      <c r="A72" s="62">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="B72" s="68"/>
-      <c r="C72" s="59" t="s">
+      <c r="B72" s="67"/>
+      <c r="C72" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="D72" s="59" t="s">
+      <c r="D72" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="E72" s="66" t="s">
+      <c r="E72" s="65" t="s">
         <v>343</v>
       </c>
-      <c r="F72" s="66" t="s">
+      <c r="F72" s="65" t="s">
         <v>355</v>
       </c>
-      <c r="G72" s="67" t="s">
+      <c r="G72" s="66" t="s">
         <v>356</v>
       </c>
-      <c r="H72" s="66"/>
+      <c r="H72" s="65"/>
     </row>
     <row r="73" spans="1:8" ht="18" customHeight="1">
-      <c r="A73" s="64">
+      <c r="A73" s="62">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="B73" s="68"/>
-      <c r="C73" s="59" t="s">
+      <c r="B73" s="67"/>
+      <c r="C73" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="D73" s="59" t="s">
+      <c r="D73" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="E73" s="66" t="s">
+      <c r="E73" s="65" t="s">
         <v>346</v>
       </c>
-      <c r="F73" s="66" t="s">
+      <c r="F73" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="G73" s="67" t="s">
+      <c r="G73" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="H73" s="66"/>
+      <c r="H73" s="65"/>
     </row>
     <row r="74" spans="1:8" ht="18" customHeight="1">
-      <c r="A74" s="64">
+      <c r="A74" s="62">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="B74" s="69"/>
-      <c r="C74" s="59" t="s">
+      <c r="B74" s="68"/>
+      <c r="C74" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="D74" s="70" t="s">
+      <c r="D74" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="E74" s="66" t="s">
+      <c r="E74" s="65" t="s">
         <v>346</v>
       </c>
-      <c r="F74" s="66" t="s">
+      <c r="F74" s="65" t="s">
         <v>359</v>
       </c>
-      <c r="G74" s="67" t="s">
+      <c r="G74" s="66" t="s">
         <v>360</v>
       </c>
-      <c r="H74" s="66"/>
+      <c r="H74" s="65"/>
     </row>
     <row r="75" spans="1:8" ht="18" customHeight="1">
-      <c r="A75" s="55">
+      <c r="A75" s="39">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="D75" s="29" t="s">
+      <c r="D75" s="24" t="s">
         <v>151</v>
       </c>
       <c r="E75" s="14" t="s">
@@ -4959,7 +4953,7 @@
       <c r="F75" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="G75" s="33" t="s">
+      <c r="G75" s="28" t="s">
         <v>363</v>
       </c>
       <c r="H75" s="14"/>
@@ -4989,12 +4983,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B34:B35"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -5005,6 +4993,12 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B34:B35"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51:D52 D58:D60 D62:D64 D44:D45 D68:D69 D23 D26:D42 D75:D1048576 D18:D21 D2:D11 D14:D15" xr:uid="{DE544392-D59F-4186-83BD-F554BE8C169C}">

--- a/doc/01_画面設計/wicum_機能要件.xlsx
+++ b/doc/01_画面設計/wicum_機能要件.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <xr:revisionPtr revIDLastSave="1555" documentId="5_{2E202A6F-B72E-4C0B-998E-A71783A98DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E11972D3-80DE-4DD5-AEE9-3846E795ADCB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能要件" sheetId="1" r:id="rId1"/>
@@ -1967,9 +1967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55:G55"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3082,9 +3082,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE53AE5C-0E87-4B54-99E9-8B6AA7CF06B3}">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
